--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -5652,28 +5652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1882.681212783267</v>
+        <v>2028.313399446807</v>
       </c>
       <c r="AB2" t="n">
-        <v>2575.967493363232</v>
+        <v>2775.22787599492</v>
       </c>
       <c r="AC2" t="n">
-        <v>2330.120771189729</v>
+        <v>2510.364022566752</v>
       </c>
       <c r="AD2" t="n">
-        <v>1882681.212783267</v>
+        <v>2028313.399446807</v>
       </c>
       <c r="AE2" t="n">
-        <v>2575967.493363232</v>
+        <v>2775227.87599492</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.412971299259077e-07</v>
+        <v>1.253199578487207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.3341049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>2330120.771189729</v>
+        <v>2510364.022566752</v>
       </c>
     </row>
     <row r="3">
@@ -5758,28 +5758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1127.005710483382</v>
+        <v>1230.979960328598</v>
       </c>
       <c r="AB3" t="n">
-        <v>1542.01893306625</v>
+        <v>1684.281088724642</v>
       </c>
       <c r="AC3" t="n">
-        <v>1394.850810331571</v>
+        <v>1523.535665520116</v>
       </c>
       <c r="AD3" t="n">
-        <v>1127005.710483382</v>
+        <v>1230979.960328598</v>
       </c>
       <c r="AE3" t="n">
-        <v>1542018.93306625</v>
+        <v>1684281.088724642</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.042227526984034e-06</v>
+        <v>1.761937345737062e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.44058641975309</v>
       </c>
       <c r="AH3" t="n">
-        <v>1394850.810331571</v>
+        <v>1523535.665520116</v>
       </c>
     </row>
     <row r="4">
@@ -5864,28 +5864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>964.224059983414</v>
+        <v>1057.783825624049</v>
       </c>
       <c r="AB4" t="n">
-        <v>1319.293897432613</v>
+        <v>1447.306496347681</v>
       </c>
       <c r="AC4" t="n">
-        <v>1193.382339502258</v>
+        <v>1309.177595643683</v>
       </c>
       <c r="AD4" t="n">
-        <v>964224.059983414</v>
+        <v>1057783.825624049</v>
       </c>
       <c r="AE4" t="n">
-        <v>1319293.897432613</v>
+        <v>1447306.496347681</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.158345695901227e-06</v>
+        <v>1.958240871633996e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.49228395061728</v>
       </c>
       <c r="AH4" t="n">
-        <v>1193382.339502258</v>
+        <v>1309177.595643683</v>
       </c>
     </row>
     <row r="5">
@@ -5970,28 +5970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>890.0432579892872</v>
+        <v>983.6882749759432</v>
       </c>
       <c r="AB5" t="n">
-        <v>1217.796451518235</v>
+        <v>1345.925695085953</v>
       </c>
       <c r="AC5" t="n">
-        <v>1101.571667373388</v>
+        <v>1217.472435765526</v>
       </c>
       <c r="AD5" t="n">
-        <v>890043.2579892873</v>
+        <v>983688.2749759431</v>
       </c>
       <c r="AE5" t="n">
-        <v>1217796.451518235</v>
+        <v>1345925.695085953</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.220842584644538e-06</v>
+        <v>2.063894962912761e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1101571.667373389</v>
+        <v>1217472.435765526</v>
       </c>
     </row>
     <row r="6">
@@ -6076,28 +6076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>851.5631970142711</v>
+        <v>934.7938193048971</v>
       </c>
       <c r="AB6" t="n">
-        <v>1165.14633447174</v>
+        <v>1279.026143765682</v>
       </c>
       <c r="AC6" t="n">
-        <v>1053.946403602907</v>
+        <v>1156.957683729152</v>
       </c>
       <c r="AD6" t="n">
-        <v>851563.197014271</v>
+        <v>934793.8193048971</v>
       </c>
       <c r="AE6" t="n">
-        <v>1165146.33447174</v>
+        <v>1279026.143765682</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.260914119191719e-06</v>
+        <v>2.131637880262088e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.06867283950617</v>
       </c>
       <c r="AH6" t="n">
-        <v>1053946.403602907</v>
+        <v>1156957.683729152</v>
       </c>
     </row>
     <row r="7">
@@ -6182,28 +6182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>815.2351816033242</v>
+        <v>898.5510552399709</v>
       </c>
       <c r="AB7" t="n">
-        <v>1115.440741107554</v>
+        <v>1229.437195054145</v>
       </c>
       <c r="AC7" t="n">
-        <v>1008.984642307161</v>
+        <v>1112.101434684117</v>
       </c>
       <c r="AD7" t="n">
-        <v>815235.1816033243</v>
+        <v>898551.0552399709</v>
       </c>
       <c r="AE7" t="n">
-        <v>1115440.741107554</v>
+        <v>1229437.195054145</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.288591312778043e-06</v>
+        <v>2.17842754925697e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.72530864197531</v>
       </c>
       <c r="AH7" t="n">
-        <v>1008984.642307161</v>
+        <v>1112101.434684117</v>
       </c>
     </row>
     <row r="8">
@@ -6288,28 +6288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>800.9170268783945</v>
+        <v>884.2329005150411</v>
       </c>
       <c r="AB8" t="n">
-        <v>1095.8500101405</v>
+        <v>1209.846464087091</v>
       </c>
       <c r="AC8" t="n">
-        <v>991.2636232078387</v>
+        <v>1094.380415584795</v>
       </c>
       <c r="AD8" t="n">
-        <v>800917.0268783945</v>
+        <v>884232.9005150411</v>
       </c>
       <c r="AE8" t="n">
-        <v>1095850.0101405</v>
+        <v>1209846.464087091</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.304031720585214e-06</v>
+        <v>2.20453032474937e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.53626543209877</v>
       </c>
       <c r="AH8" t="n">
-        <v>991263.6232078387</v>
+        <v>1094380.415584795</v>
       </c>
     </row>
     <row r="9">
@@ -6394,28 +6394,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>784.0641471861105</v>
+        <v>867.2094286221648</v>
       </c>
       <c r="AB9" t="n">
-        <v>1072.791156648938</v>
+        <v>1186.554198820683</v>
       </c>
       <c r="AC9" t="n">
-        <v>970.4054743302074</v>
+        <v>1073.311131424513</v>
       </c>
       <c r="AD9" t="n">
-        <v>784064.1471861105</v>
+        <v>867209.4286221648</v>
       </c>
       <c r="AE9" t="n">
-        <v>1072791.156648938</v>
+        <v>1186554.198820682</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.319682201967992e-06</v>
+        <v>2.230988240044389e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.35493827160494</v>
       </c>
       <c r="AH9" t="n">
-        <v>970405.4743302074</v>
+        <v>1073311.131424513</v>
       </c>
     </row>
     <row r="10">
@@ -6500,28 +6500,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>771.7078627666266</v>
+        <v>854.8531442026811</v>
       </c>
       <c r="AB10" t="n">
-        <v>1055.884743185404</v>
+        <v>1169.647785357149</v>
       </c>
       <c r="AC10" t="n">
-        <v>955.1125852393334</v>
+        <v>1058.018242333639</v>
       </c>
       <c r="AD10" t="n">
-        <v>771707.8627666266</v>
+        <v>854853.144202681</v>
       </c>
       <c r="AE10" t="n">
-        <v>1055884.743185404</v>
+        <v>1169647.785357149</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.331236248626419e-06</v>
+        <v>2.250520929188363e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.21990740740741</v>
       </c>
       <c r="AH10" t="n">
-        <v>955112.5852393333</v>
+        <v>1058018.242333639</v>
       </c>
     </row>
     <row r="11">
@@ -6606,28 +6606,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>758.667566318501</v>
+        <v>831.5690452591178</v>
       </c>
       <c r="AB11" t="n">
-        <v>1038.042434287802</v>
+        <v>1137.789453960618</v>
       </c>
       <c r="AC11" t="n">
-        <v>938.9731212610802</v>
+        <v>1029.200425372144</v>
       </c>
       <c r="AD11" t="n">
-        <v>758667.566318501</v>
+        <v>831569.0452591178</v>
       </c>
       <c r="AE11" t="n">
-        <v>1038042.434287802</v>
+        <v>1137789.453960618</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.343367997617768e-06</v>
+        <v>2.271030252789535e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.08101851851852</v>
       </c>
       <c r="AH11" t="n">
-        <v>938973.1212610803</v>
+        <v>1029200.425372144</v>
       </c>
     </row>
     <row r="12">
@@ -6712,28 +6712,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>749.302775047226</v>
+        <v>822.2042539878427</v>
       </c>
       <c r="AB12" t="n">
-        <v>1025.229113725011</v>
+        <v>1124.976133397827</v>
       </c>
       <c r="AC12" t="n">
-        <v>927.3826860291936</v>
+        <v>1017.609990140257</v>
       </c>
       <c r="AD12" t="n">
-        <v>749302.775047226</v>
+        <v>822204.2539878427</v>
       </c>
       <c r="AE12" t="n">
-        <v>1025229.113725011</v>
+        <v>1124976.133397827</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.350563017582334e-06</v>
+        <v>2.283193791029191e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.00385802469136</v>
       </c>
       <c r="AH12" t="n">
-        <v>927382.6860291936</v>
+        <v>1017609.990140257</v>
       </c>
     </row>
     <row r="13">
@@ -6818,28 +6818,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>729.547457732649</v>
+        <v>812.7779905147241</v>
       </c>
       <c r="AB13" t="n">
-        <v>998.1990170321174</v>
+        <v>1112.078703856511</v>
       </c>
       <c r="AC13" t="n">
-        <v>902.9323038276908</v>
+        <v>1005.943473172709</v>
       </c>
       <c r="AD13" t="n">
-        <v>729547.4577326491</v>
+        <v>812777.9905147242</v>
       </c>
       <c r="AE13" t="n">
-        <v>998199.0170321174</v>
+        <v>1112078.703856511</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.358335739879821e-06</v>
+        <v>2.296333963726046e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.91512345679012</v>
       </c>
       <c r="AH13" t="n">
-        <v>902932.3038276908</v>
+        <v>1005943.473172709</v>
       </c>
     </row>
     <row r="14">
@@ -6924,28 +6924,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>724.4703785639668</v>
+        <v>807.7009113460419</v>
       </c>
       <c r="AB14" t="n">
-        <v>991.2523333286017</v>
+        <v>1105.132020152995</v>
       </c>
       <c r="AC14" t="n">
-        <v>896.6486018671068</v>
+        <v>999.6597712121247</v>
       </c>
       <c r="AD14" t="n">
-        <v>724470.3785639668</v>
+        <v>807700.9113460419</v>
       </c>
       <c r="AE14" t="n">
-        <v>991252.3333286017</v>
+        <v>1105132.020152995</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.361119214756624e-06</v>
+        <v>2.30103956611073e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.88425925925926</v>
       </c>
       <c r="AH14" t="n">
-        <v>896648.6018671067</v>
+        <v>999659.7712121247</v>
       </c>
     </row>
     <row r="15">
@@ -7030,28 +7030,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>714.7810771352304</v>
+        <v>798.0116099173056</v>
       </c>
       <c r="AB15" t="n">
-        <v>977.9950036519942</v>
+        <v>1091.874690476388</v>
       </c>
       <c r="AC15" t="n">
-        <v>884.6565331280556</v>
+        <v>987.6677024730735</v>
       </c>
       <c r="AD15" t="n">
-        <v>714781.0771352304</v>
+        <v>798011.6099173055</v>
       </c>
       <c r="AE15" t="n">
-        <v>977995.0036519943</v>
+        <v>1091874.690476388</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.366633646116328e-06</v>
+        <v>2.310361985929445e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.82638888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>884656.5331280556</v>
+        <v>987667.7024730735</v>
       </c>
     </row>
     <row r="16">
@@ -7136,28 +7136,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>707.0791182965069</v>
+        <v>790.3096510785819</v>
       </c>
       <c r="AB16" t="n">
-        <v>967.4568437824096</v>
+        <v>1081.336530606803</v>
       </c>
       <c r="AC16" t="n">
-        <v>875.1241204460239</v>
+        <v>978.1352897910417</v>
       </c>
       <c r="AD16" t="n">
-        <v>707079.1182965068</v>
+        <v>790309.6510785818</v>
       </c>
       <c r="AE16" t="n">
-        <v>967456.8437824096</v>
+        <v>1081336.530606803</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.37209555908213e-06</v>
+        <v>2.319595620797505e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.76851851851852</v>
       </c>
       <c r="AH16" t="n">
-        <v>875124.1204460239</v>
+        <v>978135.2897910418</v>
       </c>
     </row>
     <row r="17">
@@ -7242,28 +7242,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>699.5854028001079</v>
+        <v>782.8159355821831</v>
       </c>
       <c r="AB17" t="n">
-        <v>957.2036116408415</v>
+        <v>1071.083298465235</v>
       </c>
       <c r="AC17" t="n">
-        <v>865.8494423895453</v>
+        <v>968.8606117345632</v>
       </c>
       <c r="AD17" t="n">
-        <v>699585.4028001078</v>
+        <v>782815.9355821831</v>
       </c>
       <c r="AE17" t="n">
-        <v>957203.6116408415</v>
+        <v>1071083.298465235</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.3739862212626e-06</v>
+        <v>2.322791879021065e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.74537037037037</v>
       </c>
       <c r="AH17" t="n">
-        <v>865849.4423895453</v>
+        <v>968860.6117345633</v>
       </c>
     </row>
     <row r="18">
@@ -7348,28 +7348,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>691.0583584727142</v>
+        <v>774.2888912547893</v>
       </c>
       <c r="AB18" t="n">
-        <v>945.5365334054555</v>
+        <v>1059.416220229849</v>
       </c>
       <c r="AC18" t="n">
-        <v>855.2958537260973</v>
+        <v>958.3070230711154</v>
       </c>
       <c r="AD18" t="n">
-        <v>691058.3584727142</v>
+        <v>774288.8912547893</v>
       </c>
       <c r="AE18" t="n">
-        <v>945536.5334054555</v>
+        <v>1059416.220229849</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.379868281379617e-06</v>
+        <v>2.33273579349436e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.68364197530864</v>
       </c>
       <c r="AH18" t="n">
-        <v>855295.8537260974</v>
+        <v>958307.0230711154</v>
       </c>
     </row>
     <row r="19">
@@ -7454,28 +7454,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>686.4005552293344</v>
+        <v>769.6310880114092</v>
       </c>
       <c r="AB19" t="n">
-        <v>939.1635215200865</v>
+        <v>1053.04320834448</v>
       </c>
       <c r="AC19" t="n">
-        <v>849.5310731504899</v>
+        <v>952.5422424955077</v>
       </c>
       <c r="AD19" t="n">
-        <v>686400.5552293344</v>
+        <v>769631.0880114093</v>
       </c>
       <c r="AE19" t="n">
-        <v>939163.5215200866</v>
+        <v>1053043.20834448</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.38102368604546e-06</v>
+        <v>2.334689062408757e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.67206790123457</v>
       </c>
       <c r="AH19" t="n">
-        <v>849531.0731504898</v>
+        <v>952542.2424955077</v>
       </c>
     </row>
     <row r="20">
@@ -7560,28 +7560,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>679.7523999566193</v>
+        <v>762.9829327386944</v>
       </c>
       <c r="AB20" t="n">
-        <v>930.0672221800473</v>
+        <v>1043.946909004441</v>
       </c>
       <c r="AC20" t="n">
-        <v>841.3029118527276</v>
+        <v>944.3140811977454</v>
       </c>
       <c r="AD20" t="n">
-        <v>679752.3999566194</v>
+        <v>762982.9327386945</v>
       </c>
       <c r="AE20" t="n">
-        <v>930067.2221800473</v>
+        <v>1043946.909004441</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.383702124134459e-06</v>
+        <v>2.339217094892133e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.64506172839506</v>
       </c>
       <c r="AH20" t="n">
-        <v>841302.9118527275</v>
+        <v>944314.0811977454</v>
       </c>
     </row>
     <row r="21">
@@ -7666,28 +7666,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>672.0510612509457</v>
+        <v>755.2815940330206</v>
       </c>
       <c r="AB21" t="n">
-        <v>919.5299108038598</v>
+        <v>1033.409597628253</v>
       </c>
       <c r="AC21" t="n">
-        <v>831.771266685074</v>
+        <v>934.782436030092</v>
       </c>
       <c r="AD21" t="n">
-        <v>672051.0612509458</v>
+        <v>755281.5940330207</v>
       </c>
       <c r="AE21" t="n">
-        <v>919529.9108038598</v>
+        <v>1033409.597628253</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.386275525435654e-06</v>
+        <v>2.3435675574742e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.6141975308642</v>
       </c>
       <c r="AH21" t="n">
-        <v>831771.266685074</v>
+        <v>934782.436030092</v>
       </c>
     </row>
     <row r="22">
@@ -7772,28 +7772,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>668.9150820246379</v>
+        <v>752.145614806713</v>
       </c>
       <c r="AB22" t="n">
-        <v>915.2391256767863</v>
+        <v>1029.11881250118</v>
       </c>
       <c r="AC22" t="n">
-        <v>827.8899880683736</v>
+        <v>930.9011574133914</v>
       </c>
       <c r="AD22" t="n">
-        <v>668915.0820246378</v>
+        <v>752145.614806713</v>
       </c>
       <c r="AE22" t="n">
-        <v>915239.1256767863</v>
+        <v>1029118.81250118</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.385907896678341e-06</v>
+        <v>2.342946062819619e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>14.61805555555556</v>
       </c>
       <c r="AH22" t="n">
-        <v>827889.9880683735</v>
+        <v>930901.1574133914</v>
       </c>
     </row>
     <row r="23">
@@ -7878,28 +7878,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>670.0148776498675</v>
+        <v>753.2454104319423</v>
       </c>
       <c r="AB23" t="n">
-        <v>916.7439145707838</v>
+        <v>1030.623601395178</v>
       </c>
       <c r="AC23" t="n">
-        <v>829.2511620223125</v>
+        <v>932.2623313673304</v>
       </c>
       <c r="AD23" t="n">
-        <v>670014.8776498674</v>
+        <v>753245.4104319423</v>
       </c>
       <c r="AE23" t="n">
-        <v>916743.9145707837</v>
+        <v>1030623.601395177</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.385907896678341e-06</v>
+        <v>2.342946062819619e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>14.62191358024691</v>
       </c>
       <c r="AH23" t="n">
-        <v>829251.1620223125</v>
+        <v>932262.3313673304</v>
       </c>
     </row>
   </sheetData>
@@ -8175,28 +8175,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1410.367129244321</v>
+        <v>1541.37382950536</v>
       </c>
       <c r="AB2" t="n">
-        <v>1929.726527238485</v>
+        <v>2108.975674143349</v>
       </c>
       <c r="AC2" t="n">
-        <v>1745.556135867035</v>
+        <v>1907.697995769056</v>
       </c>
       <c r="AD2" t="n">
-        <v>1410367.129244321</v>
+        <v>1541373.82950536</v>
       </c>
       <c r="AE2" t="n">
-        <v>1929726.527238485</v>
+        <v>2108975.674143349</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.762812105934822e-07</v>
+        <v>1.517535920532192e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.91975308641975</v>
       </c>
       <c r="AH2" t="n">
-        <v>1745556.135867035</v>
+        <v>1907697.995769056</v>
       </c>
     </row>
     <row r="3">
@@ -8281,28 +8281,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>934.0318535979567</v>
+        <v>1024.761712846677</v>
       </c>
       <c r="AB3" t="n">
-        <v>1277.983588669892</v>
+        <v>1402.124184812883</v>
       </c>
       <c r="AC3" t="n">
-        <v>1156.014628628468</v>
+        <v>1268.307420507994</v>
       </c>
       <c r="AD3" t="n">
-        <v>934031.8535979567</v>
+        <v>1024761.712846677</v>
       </c>
       <c r="AE3" t="n">
-        <v>1277983.588669891</v>
+        <v>1402124.184812883</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.154013838069078e-06</v>
+        <v>1.998510787279081e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.16358024691358</v>
       </c>
       <c r="AH3" t="n">
-        <v>1156014.628628468</v>
+        <v>1268307.420507994</v>
       </c>
     </row>
     <row r="4">
@@ -8387,28 +8387,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>814.0100968269143</v>
+        <v>904.7398665670838</v>
       </c>
       <c r="AB4" t="n">
-        <v>1113.764526069544</v>
+        <v>1237.904999742987</v>
       </c>
       <c r="AC4" t="n">
-        <v>1007.468402879796</v>
+        <v>1119.761083978095</v>
       </c>
       <c r="AD4" t="n">
-        <v>814010.0968269142</v>
+        <v>904739.8665670839</v>
       </c>
       <c r="AE4" t="n">
-        <v>1113764.526069544</v>
+        <v>1237904.999742987</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.258000584741279e-06</v>
+        <v>2.178594100063421e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.66280864197531</v>
       </c>
       <c r="AH4" t="n">
-        <v>1007468.402879796</v>
+        <v>1119761.083978095</v>
       </c>
     </row>
     <row r="5">
@@ -8493,28 +8493,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>756.8236976054152</v>
+        <v>847.4681264910132</v>
       </c>
       <c r="AB5" t="n">
-        <v>1035.519571768812</v>
+        <v>1159.543278320057</v>
       </c>
       <c r="AC5" t="n">
-        <v>936.6910372000426</v>
+        <v>1048.878095266403</v>
       </c>
       <c r="AD5" t="n">
-        <v>756823.6976054152</v>
+        <v>847468.1264910132</v>
       </c>
       <c r="AE5" t="n">
-        <v>1035519.571768812</v>
+        <v>1159543.278320057</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.312167139826014e-06</v>
+        <v>2.272399253065504e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.97222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>936691.0372000426</v>
+        <v>1048878.095266403</v>
       </c>
     </row>
     <row r="6">
@@ -8599,28 +8599,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>728.3565746427131</v>
+        <v>809.0811173935941</v>
       </c>
       <c r="AB6" t="n">
-        <v>996.569598250413</v>
+        <v>1107.02047895765</v>
       </c>
       <c r="AC6" t="n">
-        <v>901.4583944876086</v>
+        <v>1001.367998158931</v>
       </c>
       <c r="AD6" t="n">
-        <v>728356.5746427131</v>
+        <v>809081.1173935941</v>
       </c>
       <c r="AE6" t="n">
-        <v>996569.5982504131</v>
+        <v>1107020.47895765</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.345851456929862e-06</v>
+        <v>2.330733450519156e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.57484567901235</v>
       </c>
       <c r="AH6" t="n">
-        <v>901458.3944876087</v>
+        <v>1001367.998158931</v>
       </c>
     </row>
     <row r="7">
@@ -8705,28 +8705,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>714.5806786177326</v>
+        <v>795.1346291680215</v>
       </c>
       <c r="AB7" t="n">
-        <v>977.720809559395</v>
+        <v>1087.938278491784</v>
       </c>
       <c r="AC7" t="n">
-        <v>884.4085077348203</v>
+        <v>984.1069761234918</v>
       </c>
       <c r="AD7" t="n">
-        <v>714580.6786177326</v>
+        <v>795134.6291680215</v>
       </c>
       <c r="AE7" t="n">
-        <v>977720.809559395</v>
+        <v>1087938.278491784</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.361389706432604e-06</v>
+        <v>2.357642451280034e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.39737654320988</v>
       </c>
       <c r="AH7" t="n">
-        <v>884408.5077348204</v>
+        <v>984106.9761234918</v>
       </c>
     </row>
     <row r="8">
@@ -8811,28 +8811,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>693.691089726968</v>
+        <v>764.32515414254</v>
       </c>
       <c r="AB8" t="n">
-        <v>949.138752455431</v>
+        <v>1045.783395543812</v>
       </c>
       <c r="AC8" t="n">
-        <v>858.5542820456897</v>
+        <v>945.9752960393233</v>
       </c>
       <c r="AD8" t="n">
-        <v>693691.089726968</v>
+        <v>764325.1541425399</v>
       </c>
       <c r="AE8" t="n">
-        <v>949138.752455431</v>
+        <v>1045783.395543811</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.38388213753098e-06</v>
+        <v>2.396594641192635e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.1466049382716</v>
       </c>
       <c r="AH8" t="n">
-        <v>858554.2820456896</v>
+        <v>945975.2960393233</v>
       </c>
     </row>
     <row r="9">
@@ -8917,28 +8917,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>669.2947210169906</v>
+        <v>749.9339229133001</v>
       </c>
       <c r="AB9" t="n">
-        <v>915.7585644946134</v>
+        <v>1026.092678079652</v>
       </c>
       <c r="AC9" t="n">
-        <v>828.3598523744644</v>
+        <v>928.1638330138483</v>
       </c>
       <c r="AD9" t="n">
-        <v>669294.7210169906</v>
+        <v>749933.9229133001</v>
       </c>
       <c r="AE9" t="n">
-        <v>915758.5644946134</v>
+        <v>1026092.678079652</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.397627512091099e-06</v>
+        <v>2.420398757250334e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.99614197530864</v>
       </c>
       <c r="AH9" t="n">
-        <v>828359.8523744644</v>
+        <v>928163.8330138483</v>
       </c>
     </row>
     <row r="10">
@@ -9023,28 +9023,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>658.1839932249458</v>
+        <v>738.8231951212553</v>
       </c>
       <c r="AB10" t="n">
-        <v>900.556376558822</v>
+        <v>1010.890490143861</v>
       </c>
       <c r="AC10" t="n">
-        <v>814.6085399188601</v>
+        <v>914.412520558244</v>
       </c>
       <c r="AD10" t="n">
-        <v>658183.9932249457</v>
+        <v>738823.1951212552</v>
       </c>
       <c r="AE10" t="n">
-        <v>900556.376558822</v>
+        <v>1010890.490143861</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.406646216347935e-06</v>
+        <v>2.436017268181474e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.89969135802469</v>
       </c>
       <c r="AH10" t="n">
-        <v>814608.5399188601</v>
+        <v>914412.520558244</v>
       </c>
     </row>
     <row r="11">
@@ -9129,28 +9129,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>645.1791299762343</v>
+        <v>725.8183318725438</v>
       </c>
       <c r="AB11" t="n">
-        <v>882.7625489278606</v>
+        <v>993.0966625128995</v>
       </c>
       <c r="AC11" t="n">
-        <v>798.5129302232036</v>
+        <v>898.3169108625875</v>
       </c>
       <c r="AD11" t="n">
-        <v>645179.1299762343</v>
+        <v>725818.3318725438</v>
       </c>
       <c r="AE11" t="n">
-        <v>882762.5489278606</v>
+        <v>993096.6625128995</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.415447602429909e-06</v>
+        <v>2.451259429451622e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.8070987654321</v>
       </c>
       <c r="AH11" t="n">
-        <v>798512.9302232036</v>
+        <v>898316.9108625875</v>
       </c>
     </row>
     <row r="12">
@@ -9235,28 +9235,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>637.0320685396194</v>
+        <v>717.6712704359288</v>
       </c>
       <c r="AB12" t="n">
-        <v>871.6153800473004</v>
+        <v>981.9494936323392</v>
       </c>
       <c r="AC12" t="n">
-        <v>788.4296314954544</v>
+        <v>888.2336121348382</v>
       </c>
       <c r="AD12" t="n">
-        <v>637032.0685396194</v>
+        <v>717671.2704359288</v>
       </c>
       <c r="AE12" t="n">
-        <v>871615.3800473004</v>
+        <v>981949.4936323392</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.421641170413519e-06</v>
+        <v>2.461985394789874e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.74537037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>788429.6314954543</v>
+        <v>888233.6121348381</v>
       </c>
     </row>
     <row r="13">
@@ -9341,28 +9341,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>624.0882422841032</v>
+        <v>704.7274441804127</v>
       </c>
       <c r="AB13" t="n">
-        <v>853.9050659231908</v>
+        <v>964.2391795082298</v>
       </c>
       <c r="AC13" t="n">
-        <v>772.4095648947679</v>
+        <v>872.2135455341518</v>
       </c>
       <c r="AD13" t="n">
-        <v>624088.2422841032</v>
+        <v>704727.4441804127</v>
       </c>
       <c r="AE13" t="n">
-        <v>853905.0659231908</v>
+        <v>964239.1795082297</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.429138647446311e-06</v>
+        <v>2.474969458094074e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.66820987654321</v>
       </c>
       <c r="AH13" t="n">
-        <v>772409.5648947678</v>
+        <v>872213.5455341517</v>
       </c>
     </row>
     <row r="14">
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>613.5112838149513</v>
+        <v>694.1504857112607</v>
       </c>
       <c r="AB14" t="n">
-        <v>839.4332047232219</v>
+        <v>949.7673183082608</v>
       </c>
       <c r="AC14" t="n">
-        <v>759.3188778163394</v>
+        <v>859.1228584557231</v>
       </c>
       <c r="AD14" t="n">
-        <v>613511.2838149513</v>
+        <v>694150.4857112607</v>
       </c>
       <c r="AE14" t="n">
-        <v>839433.2047232219</v>
+        <v>949767.3183082608</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.43402830638074e-06</v>
+        <v>2.483437325466378e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.61805555555556</v>
       </c>
       <c r="AH14" t="n">
-        <v>759318.8778163394</v>
+        <v>859122.858455723</v>
       </c>
     </row>
     <row r="15">
@@ -9553,28 +9553,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>606.1097117061199</v>
+        <v>686.7489136024293</v>
       </c>
       <c r="AB15" t="n">
-        <v>829.306047229603</v>
+        <v>939.6401608146419</v>
       </c>
       <c r="AC15" t="n">
-        <v>750.1582420203567</v>
+        <v>849.9622226597404</v>
       </c>
       <c r="AD15" t="n">
-        <v>606109.7117061199</v>
+        <v>686748.9136024293</v>
       </c>
       <c r="AE15" t="n">
-        <v>829306.047229603</v>
+        <v>939640.160814642</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.436962101741398e-06</v>
+        <v>2.488518045889761e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.58719135802469</v>
       </c>
       <c r="AH15" t="n">
-        <v>750158.2420203567</v>
+        <v>849962.2226597404</v>
       </c>
     </row>
     <row r="16">
@@ -9659,28 +9659,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>605.5575448318987</v>
+        <v>686.1967467282082</v>
       </c>
       <c r="AB16" t="n">
-        <v>828.5505481524102</v>
+        <v>938.8846617374492</v>
       </c>
       <c r="AC16" t="n">
-        <v>749.4748467147416</v>
+        <v>849.2788273541253</v>
       </c>
       <c r="AD16" t="n">
-        <v>605557.5448318986</v>
+        <v>686196.7467282081</v>
       </c>
       <c r="AE16" t="n">
-        <v>828550.5481524102</v>
+        <v>938884.6617374491</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.435603863148501e-06</v>
+        <v>2.486165860508565e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.59876543209877</v>
       </c>
       <c r="AH16" t="n">
-        <v>749474.8467147416</v>
+        <v>849278.8273541252</v>
       </c>
     </row>
   </sheetData>
@@ -9956,28 +9956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>664.9102394007065</v>
+        <v>755.893213818717</v>
       </c>
       <c r="AB2" t="n">
-        <v>909.7595233175363</v>
+        <v>1034.246442801803</v>
       </c>
       <c r="AC2" t="n">
-        <v>822.9333512676202</v>
+        <v>935.539413874798</v>
       </c>
       <c r="AD2" t="n">
-        <v>664910.2394007065</v>
+        <v>755893.2138187169</v>
       </c>
       <c r="AE2" t="n">
-        <v>909759.5233175362</v>
+        <v>1034246.442801803</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.301594192323039e-06</v>
+        <v>2.462896301564397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.97067901234568</v>
       </c>
       <c r="AH2" t="n">
-        <v>822933.3512676202</v>
+        <v>935539.413874798</v>
       </c>
     </row>
     <row r="3">
@@ -10062,28 +10062,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>530.1609062692024</v>
+        <v>603.0838311709254</v>
       </c>
       <c r="AB3" t="n">
-        <v>725.389541005992</v>
+        <v>825.165903988922</v>
       </c>
       <c r="AC3" t="n">
-        <v>656.1593813029945</v>
+        <v>746.4132282398386</v>
       </c>
       <c r="AD3" t="n">
-        <v>530160.9062692025</v>
+        <v>603083.8311709254</v>
       </c>
       <c r="AE3" t="n">
-        <v>725389.541005992</v>
+        <v>825165.903988922</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.4896493942134e-06</v>
+        <v>2.818737211087115e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.70216049382716</v>
       </c>
       <c r="AH3" t="n">
-        <v>656159.3813029944</v>
+        <v>746413.2282398386</v>
       </c>
     </row>
     <row r="4">
@@ -10168,28 +10168,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>487.9779964564519</v>
+        <v>551.7856452540105</v>
       </c>
       <c r="AB4" t="n">
-        <v>667.673022821547</v>
+        <v>754.9774629011594</v>
       </c>
       <c r="AC4" t="n">
-        <v>603.9512466084309</v>
+        <v>682.9234734593962</v>
       </c>
       <c r="AD4" t="n">
-        <v>487977.9964564519</v>
+        <v>551785.6452540106</v>
       </c>
       <c r="AE4" t="n">
-        <v>667673.022821547</v>
+        <v>754977.4629011593</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.557851232423154e-06</v>
+        <v>2.947789765314407e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.01543209876543</v>
       </c>
       <c r="AH4" t="n">
-        <v>603951.2466084309</v>
+        <v>682923.4734593962</v>
       </c>
     </row>
     <row r="5">
@@ -10274,28 +10274,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>453.9364567192798</v>
+        <v>526.774040766431</v>
       </c>
       <c r="AB5" t="n">
-        <v>621.0958863464073</v>
+        <v>720.7554822071396</v>
       </c>
       <c r="AC5" t="n">
-        <v>561.8193666670567</v>
+        <v>651.9675905719622</v>
       </c>
       <c r="AD5" t="n">
-        <v>453936.4567192798</v>
+        <v>526774.040766431</v>
       </c>
       <c r="AE5" t="n">
-        <v>621095.8863464072</v>
+        <v>720755.4822071396</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.586708187967904e-06</v>
+        <v>3.002393334925243e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.74151234567901</v>
       </c>
       <c r="AH5" t="n">
-        <v>561819.3666670567</v>
+        <v>651967.5905719622</v>
       </c>
     </row>
     <row r="6">
@@ -10380,28 +10380,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>451.2300035898839</v>
+        <v>524.0675876370352</v>
       </c>
       <c r="AB6" t="n">
-        <v>617.3927977744827</v>
+        <v>717.052393635215</v>
       </c>
       <c r="AC6" t="n">
-        <v>558.4696956711191</v>
+        <v>648.6179195760246</v>
       </c>
       <c r="AD6" t="n">
-        <v>451230.0035898839</v>
+        <v>524067.5876370352</v>
       </c>
       <c r="AE6" t="n">
-        <v>617392.7977744826</v>
+        <v>717052.393635215</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.59137622489426e-06</v>
+        <v>3.011226265303466e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.69907407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>558469.6956711191</v>
+        <v>648617.9195760246</v>
       </c>
     </row>
   </sheetData>
@@ -10677,28 +10677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>884.3960306588409</v>
+        <v>979.3623384485657</v>
       </c>
       <c r="AB2" t="n">
-        <v>1210.069665946632</v>
+        <v>1340.006757882345</v>
       </c>
       <c r="AC2" t="n">
-        <v>1094.582315372128</v>
+        <v>1212.118393621349</v>
       </c>
       <c r="AD2" t="n">
-        <v>884396.0306588409</v>
+        <v>979362.3384485657</v>
       </c>
       <c r="AE2" t="n">
-        <v>1210069.665946632</v>
+        <v>1340006.757882345</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.133259806528334e-06</v>
+        <v>2.064553252045375e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.74537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1094582.315372128</v>
+        <v>1212118.393621349</v>
       </c>
     </row>
     <row r="3">
@@ -10783,28 +10783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>665.7440994503448</v>
+        <v>741.631894336104</v>
       </c>
       <c r="AB3" t="n">
-        <v>910.9004474247603</v>
+        <v>1014.733476320681</v>
       </c>
       <c r="AC3" t="n">
-        <v>823.9653871793479</v>
+        <v>917.8887375280133</v>
       </c>
       <c r="AD3" t="n">
-        <v>665744.0994503448</v>
+        <v>741631.8943361039</v>
       </c>
       <c r="AE3" t="n">
-        <v>910900.4474247603</v>
+        <v>1014733.476320681</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.357475897216079e-06</v>
+        <v>2.473026275198262e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.48148148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>823965.3871793479</v>
+        <v>917888.7375280133</v>
       </c>
     </row>
     <row r="4">
@@ -10889,28 +10889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>600.5030220092682</v>
+        <v>676.4760682410476</v>
       </c>
       <c r="AB4" t="n">
-        <v>821.634727036678</v>
+        <v>925.5844005852479</v>
       </c>
       <c r="AC4" t="n">
-        <v>743.2190618598787</v>
+        <v>837.2479244592562</v>
       </c>
       <c r="AD4" t="n">
-        <v>600503.0220092682</v>
+        <v>676476.0682410477</v>
       </c>
       <c r="AE4" t="n">
-        <v>821634.727036678</v>
+        <v>925584.4005852479</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.437975621446443e-06</v>
+        <v>2.619679290236081e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.55941358024691</v>
       </c>
       <c r="AH4" t="n">
-        <v>743219.0618598787</v>
+        <v>837247.9244592562</v>
       </c>
     </row>
     <row r="5">
@@ -10995,28 +10995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>569.7542047327842</v>
+        <v>636.2307096941424</v>
       </c>
       <c r="AB5" t="n">
-        <v>779.5628386969147</v>
+        <v>870.5189255214615</v>
       </c>
       <c r="AC5" t="n">
-        <v>705.1624554949962</v>
+        <v>787.4378210506783</v>
       </c>
       <c r="AD5" t="n">
-        <v>569754.2047327842</v>
+        <v>636230.7096941425</v>
       </c>
       <c r="AE5" t="n">
-        <v>779562.8386969147</v>
+        <v>870518.9255214615</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.480081384984804e-06</v>
+        <v>2.696386847093038e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.1195987654321</v>
       </c>
       <c r="AH5" t="n">
-        <v>705162.4554949962</v>
+        <v>787437.8210506783</v>
       </c>
     </row>
     <row r="6">
@@ -11101,28 +11101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>540.0841708565034</v>
+        <v>615.9718762337114</v>
       </c>
       <c r="AB6" t="n">
-        <v>738.9669893978735</v>
+        <v>842.7998958242458</v>
       </c>
       <c r="AC6" t="n">
-        <v>668.4410170764233</v>
+        <v>762.3642566438622</v>
       </c>
       <c r="AD6" t="n">
-        <v>540084.1708565034</v>
+        <v>615971.8762337115</v>
       </c>
       <c r="AE6" t="n">
-        <v>738966.9893978735</v>
+        <v>842799.8958242459</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.502178211304523e-06</v>
+        <v>2.736642465774169e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>668441.0170764234</v>
+        <v>762364.2566438622</v>
       </c>
     </row>
     <row r="7">
@@ -11207,28 +11207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>520.699528390702</v>
+        <v>596.58723376791</v>
       </c>
       <c r="AB7" t="n">
-        <v>712.4440663860947</v>
+        <v>816.276972812467</v>
       </c>
       <c r="AC7" t="n">
-        <v>644.4494046117326</v>
+        <v>738.3726441791713</v>
       </c>
       <c r="AD7" t="n">
-        <v>520699.528390702</v>
+        <v>596587.23376791</v>
       </c>
       <c r="AE7" t="n">
-        <v>712444.0663860948</v>
+        <v>816276.972812467</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.521085207053153e-06</v>
+        <v>2.771086905905529e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.71064814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>644449.4046117326</v>
+        <v>738372.6441791713</v>
       </c>
     </row>
     <row r="8">
@@ -11313,28 +11313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>505.0233893810273</v>
+        <v>580.9110947582354</v>
       </c>
       <c r="AB8" t="n">
-        <v>690.9952814106141</v>
+        <v>794.8281878369864</v>
       </c>
       <c r="AC8" t="n">
-        <v>625.047661570753</v>
+        <v>718.9709011381918</v>
       </c>
       <c r="AD8" t="n">
-        <v>505023.3893810273</v>
+        <v>580911.0947582354</v>
       </c>
       <c r="AE8" t="n">
-        <v>690995.2814106141</v>
+        <v>794828.1878369865</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.533438550901184e-06</v>
+        <v>2.79359201556191e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.59104938271605</v>
       </c>
       <c r="AH8" t="n">
-        <v>625047.661570753</v>
+        <v>718970.9011381918</v>
       </c>
     </row>
     <row r="9">
@@ -11419,28 +11419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>505.4783495640154</v>
+        <v>581.3660549412235</v>
       </c>
       <c r="AB9" t="n">
-        <v>691.6177780044053</v>
+        <v>795.4506844307775</v>
       </c>
       <c r="AC9" t="n">
-        <v>625.6107479633121</v>
+        <v>719.5339875307509</v>
       </c>
       <c r="AD9" t="n">
-        <v>505478.3495640154</v>
+        <v>581366.0549412235</v>
       </c>
       <c r="AE9" t="n">
-        <v>691617.7780044053</v>
+        <v>795450.6844307776</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.533206563223287e-06</v>
+        <v>2.793169384394653e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.59490740740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>625610.7479633121</v>
+        <v>719533.9875307509</v>
       </c>
     </row>
   </sheetData>
@@ -11716,28 +11716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>526.0865769819275</v>
+        <v>605.2250858309618</v>
       </c>
       <c r="AB2" t="n">
-        <v>719.8148639284201</v>
+        <v>828.0956630802725</v>
       </c>
       <c r="AC2" t="n">
-        <v>651.1167435815977</v>
+        <v>749.0633752354532</v>
       </c>
       <c r="AD2" t="n">
-        <v>526086.5769819275</v>
+        <v>605225.0858309618</v>
       </c>
       <c r="AE2" t="n">
-        <v>719814.8639284201</v>
+        <v>828095.6630802725</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.442355847129549e-06</v>
+        <v>2.826552732645424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.84027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>651116.7435815977</v>
+        <v>749063.3752354532</v>
       </c>
     </row>
     <row r="3">
@@ -11822,28 +11822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>435.7039830847639</v>
+        <v>497.3226223627862</v>
       </c>
       <c r="AB3" t="n">
-        <v>596.1494115596948</v>
+        <v>680.4587522423931</v>
       </c>
       <c r="AC3" t="n">
-        <v>539.2537484213909</v>
+        <v>615.5167239582354</v>
       </c>
       <c r="AD3" t="n">
-        <v>435703.9830847639</v>
+        <v>497322.6223627862</v>
       </c>
       <c r="AE3" t="n">
-        <v>596149.4115596948</v>
+        <v>680458.7522423931</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.602470694311775e-06</v>
+        <v>3.140326244043945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.15817901234568</v>
       </c>
       <c r="AH3" t="n">
-        <v>539253.7484213909</v>
+        <v>615516.7239582354</v>
       </c>
     </row>
     <row r="4">
@@ -11928,28 +11928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>405.5145842812083</v>
+        <v>475.8504431631752</v>
       </c>
       <c r="AB4" t="n">
-        <v>554.842944254393</v>
+        <v>651.0795693757952</v>
       </c>
       <c r="AC4" t="n">
-        <v>501.889512381716</v>
+        <v>588.9414490704835</v>
       </c>
       <c r="AD4" t="n">
-        <v>405514.5842812083</v>
+        <v>475850.4431631752</v>
       </c>
       <c r="AE4" t="n">
-        <v>554842.944254393</v>
+        <v>651079.5693757952</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.636407738209227e-06</v>
+        <v>3.206831915551536e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.84567901234568</v>
       </c>
       <c r="AH4" t="n">
-        <v>501889.512381716</v>
+        <v>588941.4490704834</v>
       </c>
     </row>
   </sheetData>
@@ -12225,28 +12225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1519.484858475038</v>
+        <v>1651.683701990675</v>
       </c>
       <c r="AB2" t="n">
-        <v>2079.026218306414</v>
+        <v>2259.906508205869</v>
       </c>
       <c r="AC2" t="n">
-        <v>1880.606873962873</v>
+        <v>2044.224202861406</v>
       </c>
       <c r="AD2" t="n">
-        <v>1519484.858475038</v>
+        <v>1651683.701990675</v>
       </c>
       <c r="AE2" t="n">
-        <v>2079026.218306414</v>
+        <v>2259906.508205869</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.399813245410884e-07</v>
+        <v>1.445172083346926e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.72993827160494</v>
       </c>
       <c r="AH2" t="n">
-        <v>1880606.873962873</v>
+        <v>2044224.202861405</v>
       </c>
     </row>
     <row r="3">
@@ -12331,28 +12331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>977.4212547686168</v>
+        <v>1068.917361832741</v>
       </c>
       <c r="AB3" t="n">
-        <v>1337.35088155687</v>
+        <v>1462.539891765365</v>
       </c>
       <c r="AC3" t="n">
-        <v>1209.715990404833</v>
+        <v>1322.957137182908</v>
       </c>
       <c r="AD3" t="n">
-        <v>977421.2547686168</v>
+        <v>1068917.361832741</v>
       </c>
       <c r="AE3" t="n">
-        <v>1337350.88155687</v>
+        <v>1462539.891765365</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.125072095225343e-06</v>
+        <v>1.935665396680813e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.46450617283951</v>
       </c>
       <c r="AH3" t="n">
-        <v>1209715.990404833</v>
+        <v>1322957.137182908</v>
       </c>
     </row>
     <row r="4">
@@ -12437,28 +12437,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>849.4425900461929</v>
+        <v>940.9386076017661</v>
       </c>
       <c r="AB4" t="n">
-        <v>1162.244826463439</v>
+        <v>1287.433714202385</v>
       </c>
       <c r="AC4" t="n">
-        <v>1051.321811446626</v>
+        <v>1164.562847443475</v>
       </c>
       <c r="AD4" t="n">
-        <v>849442.5900461929</v>
+        <v>940938.6076017661</v>
       </c>
       <c r="AE4" t="n">
-        <v>1162244.826463439</v>
+        <v>1287433.714202385</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.230655287163365e-06</v>
+        <v>2.117319294215799e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.87885802469136</v>
       </c>
       <c r="AH4" t="n">
-        <v>1051321.811446626</v>
+        <v>1164562.847443475</v>
       </c>
     </row>
     <row r="5">
@@ -12543,28 +12543,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>797.5344040233862</v>
+        <v>878.8548045974942</v>
       </c>
       <c r="AB5" t="n">
-        <v>1091.221756319489</v>
+        <v>1202.487915987857</v>
       </c>
       <c r="AC5" t="n">
-        <v>987.0770834357103</v>
+        <v>1087.724156988365</v>
       </c>
       <c r="AD5" t="n">
-        <v>797534.4040233862</v>
+        <v>878854.8045974942</v>
       </c>
       <c r="AE5" t="n">
-        <v>1091221.756319489</v>
+        <v>1202487.915987857</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.288427222374735e-06</v>
+        <v>2.216714823055697e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.12268518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>987077.0834357103</v>
+        <v>1087724.156988365</v>
       </c>
     </row>
     <row r="6">
@@ -12649,28 +12649,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>755.9397688980007</v>
+        <v>837.3454208181294</v>
       </c>
       <c r="AB6" t="n">
-        <v>1034.310141515145</v>
+        <v>1145.692945836161</v>
       </c>
       <c r="AC6" t="n">
-        <v>935.5970332723394</v>
+        <v>1036.349619075706</v>
       </c>
       <c r="AD6" t="n">
-        <v>755939.7688980007</v>
+        <v>837345.4208181293</v>
       </c>
       <c r="AE6" t="n">
-        <v>1034310.141515144</v>
+        <v>1145692.945836161</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.324501030941015e-06</v>
+        <v>2.278779132769334e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.68287037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>935597.0332723395</v>
+        <v>1036349.619075706</v>
       </c>
     </row>
     <row r="7">
@@ -12755,28 +12755,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>730.1743119120376</v>
+        <v>811.4093716315741</v>
       </c>
       <c r="AB7" t="n">
-        <v>999.0567065752115</v>
+        <v>1110.206099121382</v>
       </c>
       <c r="AC7" t="n">
-        <v>903.7081366845667</v>
+        <v>1004.249587205283</v>
       </c>
       <c r="AD7" t="n">
-        <v>730174.3119120377</v>
+        <v>811409.3716315741</v>
       </c>
       <c r="AE7" t="n">
-        <v>999056.7065752115</v>
+        <v>1110206.099121382</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.35282166274081e-06</v>
+        <v>2.327504247559442e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.35493827160494</v>
       </c>
       <c r="AH7" t="n">
-        <v>903708.1366845667</v>
+        <v>1004249.587205283</v>
       </c>
     </row>
     <row r="8">
@@ -12861,28 +12861,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>720.1597847429618</v>
+        <v>801.3948444624982</v>
       </c>
       <c r="AB8" t="n">
-        <v>985.3543886927246</v>
+        <v>1096.503781238894</v>
       </c>
       <c r="AC8" t="n">
-        <v>891.3135487894605</v>
+        <v>991.8549993101764</v>
       </c>
       <c r="AD8" t="n">
-        <v>720159.7847429619</v>
+        <v>801394.8444624982</v>
       </c>
       <c r="AE8" t="n">
-        <v>985354.3886927245</v>
+        <v>1096503.781238894</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.362997707246821e-06</v>
+        <v>2.345011940896572e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.2391975308642</v>
       </c>
       <c r="AH8" t="n">
-        <v>891313.5487894604</v>
+        <v>991854.9993101764</v>
       </c>
     </row>
     <row r="9">
@@ -12967,28 +12967,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>706.2330102582553</v>
+        <v>777.4630451969188</v>
       </c>
       <c r="AB9" t="n">
-        <v>966.2991614368212</v>
+        <v>1063.759237687259</v>
       </c>
       <c r="AC9" t="n">
-        <v>874.0769256786814</v>
+        <v>962.2355490378537</v>
       </c>
       <c r="AD9" t="n">
-        <v>706233.0102582553</v>
+        <v>777463.0451969188</v>
       </c>
       <c r="AE9" t="n">
-        <v>966299.1614368212</v>
+        <v>1063759.237687259</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.376458083577522e-06</v>
+        <v>2.368170265416587e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.09259259259259</v>
       </c>
       <c r="AH9" t="n">
-        <v>874076.9256786813</v>
+        <v>962235.5490378537</v>
       </c>
     </row>
     <row r="10">
@@ -13073,28 +13073,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>683.1838680748726</v>
+        <v>764.5041791404298</v>
       </c>
       <c r="AB10" t="n">
-        <v>934.7623082451304</v>
+        <v>1046.02834544395</v>
       </c>
       <c r="AC10" t="n">
-        <v>845.549905493354</v>
+        <v>946.196868264782</v>
       </c>
       <c r="AD10" t="n">
-        <v>683183.8680748726</v>
+        <v>764504.1791404297</v>
       </c>
       <c r="AE10" t="n">
-        <v>934762.3082451303</v>
+        <v>1046028.34544395</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.388141690232571e-06</v>
+        <v>2.388271691099957e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.96527777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>845549.905493354</v>
+        <v>946196.868264782</v>
       </c>
     </row>
     <row r="11">
@@ -13179,28 +13179,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>671.4870756732914</v>
+        <v>752.8073867388485</v>
       </c>
       <c r="AB11" t="n">
-        <v>918.7582408552256</v>
+        <v>1030.024278054045</v>
       </c>
       <c r="AC11" t="n">
-        <v>831.0732438332919</v>
+        <v>931.7202066047198</v>
       </c>
       <c r="AD11" t="n">
-        <v>671487.0756732915</v>
+        <v>752807.3867388485</v>
       </c>
       <c r="AE11" t="n">
-        <v>918758.2408552256</v>
+        <v>1030024.278054045</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.397402429148094e-06</v>
+        <v>2.404204618369727e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.86496913580247</v>
       </c>
       <c r="AH11" t="n">
-        <v>831073.2438332919</v>
+        <v>931720.2066047199</v>
       </c>
     </row>
     <row r="12">
@@ -13285,28 +13285,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>662.7024185892254</v>
+        <v>744.0227296547826</v>
       </c>
       <c r="AB12" t="n">
-        <v>906.7386854810877</v>
+        <v>1018.004722679907</v>
       </c>
       <c r="AC12" t="n">
-        <v>820.2008179545098</v>
+        <v>920.847780725938</v>
       </c>
       <c r="AD12" t="n">
-        <v>662702.4185892254</v>
+        <v>744022.7296547826</v>
       </c>
       <c r="AE12" t="n">
-        <v>906738.6854810878</v>
+        <v>1018004.722679907</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.40289426269102e-06</v>
+        <v>2.413653214773893e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.8070987654321</v>
       </c>
       <c r="AH12" t="n">
-        <v>820200.8179545099</v>
+        <v>920847.780725938</v>
       </c>
     </row>
     <row r="13">
@@ -13391,28 +13391,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>654.2143178868746</v>
+        <v>735.5346289524316</v>
       </c>
       <c r="AB13" t="n">
-        <v>895.1248916315569</v>
+        <v>1006.390928830376</v>
       </c>
       <c r="AC13" t="n">
-        <v>809.6954282899162</v>
+        <v>910.3423910613442</v>
       </c>
       <c r="AD13" t="n">
-        <v>654214.3178868745</v>
+        <v>735534.6289524316</v>
       </c>
       <c r="AE13" t="n">
-        <v>895124.8916315569</v>
+        <v>1006390.928830376</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.408063047202009e-06</v>
+        <v>2.422546011389578e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.75308641975309</v>
       </c>
       <c r="AH13" t="n">
-        <v>809695.4282899162</v>
+        <v>910342.3910613442</v>
       </c>
     </row>
     <row r="14">
@@ -13497,28 +13497,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>644.5194749966689</v>
+        <v>725.8397860622259</v>
       </c>
       <c r="AB14" t="n">
-        <v>881.8599798828952</v>
+        <v>993.1260170817147</v>
       </c>
       <c r="AC14" t="n">
-        <v>797.6965011011264</v>
+        <v>898.3434638725545</v>
       </c>
       <c r="AD14" t="n">
-        <v>644519.4749966689</v>
+        <v>725839.7860622259</v>
       </c>
       <c r="AE14" t="n">
-        <v>881859.9798828952</v>
+        <v>993126.0170817147</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.412585733649125e-06</v>
+        <v>2.430327208428302e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.70679012345679</v>
       </c>
       <c r="AH14" t="n">
-        <v>797696.5011011264</v>
+        <v>898343.4638725545</v>
       </c>
     </row>
     <row r="15">
@@ -13603,28 +13603,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>633.7495706772888</v>
+        <v>715.0698817428457</v>
       </c>
       <c r="AB15" t="n">
-        <v>867.1241216584742</v>
+        <v>978.3901588572936</v>
       </c>
       <c r="AC15" t="n">
-        <v>784.3670125037371</v>
+        <v>885.0139752751652</v>
       </c>
       <c r="AD15" t="n">
-        <v>633749.5706772888</v>
+        <v>715069.8817428458</v>
       </c>
       <c r="AE15" t="n">
-        <v>867124.1216584742</v>
+        <v>978390.1588572937</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.41786220117076e-06</v>
+        <v>2.439405271640148e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.64891975308642</v>
       </c>
       <c r="AH15" t="n">
-        <v>784367.0125037371</v>
+        <v>885013.9752751652</v>
       </c>
     </row>
     <row r="16">
@@ -13709,28 +13709,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>623.2236542899765</v>
+        <v>704.5439653555335</v>
       </c>
       <c r="AB16" t="n">
-        <v>852.7220984866964</v>
+        <v>963.9881356855155</v>
       </c>
       <c r="AC16" t="n">
-        <v>771.3394982101072</v>
+        <v>871.9864609815351</v>
       </c>
       <c r="AD16" t="n">
-        <v>623223.6542899765</v>
+        <v>704543.9653555335</v>
       </c>
       <c r="AE16" t="n">
-        <v>852722.0984866964</v>
+        <v>963988.1356855156</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.424753913852079e-06</v>
+        <v>2.451262333794395e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.57947530864197</v>
       </c>
       <c r="AH16" t="n">
-        <v>771339.4982101072</v>
+        <v>871986.460981535</v>
       </c>
     </row>
     <row r="17">
@@ -13815,28 +13815,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>621.0148800570261</v>
+        <v>702.3351911225831</v>
       </c>
       <c r="AB17" t="n">
-        <v>849.6999561369314</v>
+        <v>960.9659933357509</v>
       </c>
       <c r="AC17" t="n">
-        <v>768.6057848846006</v>
+        <v>869.2527476560285</v>
       </c>
       <c r="AD17" t="n">
-        <v>621014.8800570261</v>
+        <v>702335.1911225831</v>
       </c>
       <c r="AE17" t="n">
-        <v>849699.9561369314</v>
+        <v>960965.9933357509</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.424000132777559e-06</v>
+        <v>2.449965467621274e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.58719135802469</v>
       </c>
       <c r="AH17" t="n">
-        <v>768605.7848846006</v>
+        <v>869252.7476560285</v>
       </c>
     </row>
     <row r="18">
@@ -13921,28 +13921,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>621.9228793382408</v>
+        <v>703.2431904037979</v>
       </c>
       <c r="AB18" t="n">
-        <v>850.9423208115909</v>
+        <v>962.2083580104103</v>
       </c>
       <c r="AC18" t="n">
-        <v>769.7295800183801</v>
+        <v>870.376542789808</v>
       </c>
       <c r="AD18" t="n">
-        <v>621922.8793382408</v>
+        <v>703243.1904037979</v>
       </c>
       <c r="AE18" t="n">
-        <v>850942.3208115909</v>
+        <v>962208.3580104103</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.423192510197717e-06</v>
+        <v>2.448575968150073e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.59490740740741</v>
       </c>
       <c r="AH18" t="n">
-        <v>769729.5800183802</v>
+        <v>870376.542789808</v>
       </c>
     </row>
   </sheetData>
@@ -14218,28 +14218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>456.7884613333839</v>
+        <v>525.6430138507335</v>
       </c>
       <c r="AB2" t="n">
-        <v>624.998124880988</v>
+        <v>719.2079612836964</v>
       </c>
       <c r="AC2" t="n">
-        <v>565.3491810327233</v>
+        <v>650.5677628734931</v>
       </c>
       <c r="AD2" t="n">
-        <v>456788.4613333839</v>
+        <v>525643.0138507335</v>
       </c>
       <c r="AE2" t="n">
-        <v>624998.124880988</v>
+        <v>719207.9612836963</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.530270706500411e-06</v>
+        <v>3.067673050802444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.24614197530864</v>
       </c>
       <c r="AH2" t="n">
-        <v>565349.1810327233</v>
+        <v>650567.762873493</v>
       </c>
     </row>
     <row r="3">
@@ -14324,28 +14324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>389.2755519628627</v>
+        <v>449.5979698518626</v>
       </c>
       <c r="AB3" t="n">
-        <v>532.6239838208887</v>
+        <v>615.1597772138749</v>
       </c>
       <c r="AC3" t="n">
-        <v>481.7910983474787</v>
+        <v>556.4497914587519</v>
       </c>
       <c r="AD3" t="n">
-        <v>389275.5519628627</v>
+        <v>449597.9698518626</v>
       </c>
       <c r="AE3" t="n">
-        <v>532623.9838208887</v>
+        <v>615159.777213875</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.653792915619165e-06</v>
+        <v>3.315293129053666e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.03086419753086</v>
       </c>
       <c r="AH3" t="n">
-        <v>481791.0983474787</v>
+        <v>556449.7914587519</v>
       </c>
     </row>
     <row r="4">
@@ -14430,28 +14430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>391.912039756288</v>
+        <v>452.234457645288</v>
       </c>
       <c r="AB4" t="n">
-        <v>536.2313427334857</v>
+        <v>618.7671361264721</v>
       </c>
       <c r="AC4" t="n">
-        <v>485.0541759884175</v>
+        <v>559.7128690996907</v>
       </c>
       <c r="AD4" t="n">
-        <v>391912.0397562881</v>
+        <v>452234.457645288</v>
       </c>
       <c r="AE4" t="n">
-        <v>536231.3427334857</v>
+        <v>618767.1361264721</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.655468229879513e-06</v>
+        <v>3.318651565169749e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.01543209876543</v>
       </c>
       <c r="AH4" t="n">
-        <v>485054.1759884175</v>
+        <v>559712.8690996907</v>
       </c>
     </row>
   </sheetData>
@@ -14727,28 +14727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1128.280002820923</v>
+        <v>1236.236772008387</v>
       </c>
       <c r="AB2" t="n">
-        <v>1543.762476060283</v>
+        <v>1691.473690379093</v>
       </c>
       <c r="AC2" t="n">
-        <v>1396.427952029333</v>
+        <v>1530.041815367547</v>
       </c>
       <c r="AD2" t="n">
-        <v>1128280.002820923</v>
+        <v>1236236.772008387</v>
       </c>
       <c r="AE2" t="n">
-        <v>1543762.476060283</v>
+        <v>1691473.690379093</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.948101859462703e-07</v>
+        <v>1.761882760571723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.70910493827161</v>
       </c>
       <c r="AH2" t="n">
-        <v>1396427.952029333</v>
+        <v>1530041.815367547</v>
       </c>
     </row>
     <row r="3">
@@ -14833,28 +14833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>797.9793325096273</v>
+        <v>886.1370060078697</v>
       </c>
       <c r="AB3" t="n">
-        <v>1091.830527103224</v>
+        <v>1212.451745225585</v>
       </c>
       <c r="AC3" t="n">
-        <v>987.6277539902605</v>
+        <v>1096.737052347966</v>
       </c>
       <c r="AD3" t="n">
-        <v>797979.3325096273</v>
+        <v>886137.0060078697</v>
       </c>
       <c r="AE3" t="n">
-        <v>1091830.527103224</v>
+        <v>1212451.745225585</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.248382667509212e-06</v>
+        <v>2.210978467604691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.29938271604938</v>
       </c>
       <c r="AH3" t="n">
-        <v>987627.7539902605</v>
+        <v>1096737.052347966</v>
       </c>
     </row>
     <row r="4">
@@ -14939,28 +14939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>713.5261416138071</v>
+        <v>791.954904222306</v>
       </c>
       <c r="AB4" t="n">
-        <v>976.2779455077348</v>
+        <v>1083.587638541492</v>
       </c>
       <c r="AC4" t="n">
-        <v>883.103348603178</v>
+        <v>980.171555143894</v>
       </c>
       <c r="AD4" t="n">
-        <v>713526.1416138071</v>
+        <v>791954.904222306</v>
       </c>
       <c r="AE4" t="n">
-        <v>976277.9455077348</v>
+        <v>1083587.638541492</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.341191315286554e-06</v>
+        <v>2.375349479141261e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.1033950617284</v>
       </c>
       <c r="AH4" t="n">
-        <v>883103.348603178</v>
+        <v>980171.555143894</v>
       </c>
     </row>
     <row r="5">
@@ -15045,28 +15045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>665.7851957337423</v>
+        <v>744.2992096882618</v>
       </c>
       <c r="AB5" t="n">
-        <v>910.9566771727449</v>
+        <v>1018.383014859152</v>
       </c>
       <c r="AC5" t="n">
-        <v>824.0162504391037</v>
+        <v>921.189969230532</v>
       </c>
       <c r="AD5" t="n">
-        <v>665785.1957337423</v>
+        <v>744299.2096882618</v>
       </c>
       <c r="AE5" t="n">
-        <v>910956.6771727449</v>
+        <v>1018383.014859152</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.389890666050298e-06</v>
+        <v>2.461599648041632e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.53626543209877</v>
       </c>
       <c r="AH5" t="n">
-        <v>824016.2504391037</v>
+        <v>921189.9692305321</v>
       </c>
     </row>
     <row r="6">
@@ -15151,28 +15151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>634.3897543254536</v>
+        <v>703.0896060442094</v>
       </c>
       <c r="AB6" t="n">
-        <v>868.0000491688028</v>
+        <v>961.9982171139574</v>
       </c>
       <c r="AC6" t="n">
-        <v>785.1593427218519</v>
+        <v>870.1864574455783</v>
       </c>
       <c r="AD6" t="n">
-        <v>634389.7543254537</v>
+        <v>703089.6060442094</v>
       </c>
       <c r="AE6" t="n">
-        <v>868000.0491688028</v>
+        <v>961998.2171139574</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.429633814374733e-06</v>
+        <v>2.531987716914349e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>785159.3427218519</v>
+        <v>870186.4574455783</v>
       </c>
     </row>
     <row r="7">
@@ -15257,28 +15257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>623.2669767990192</v>
+        <v>691.9668285177748</v>
       </c>
       <c r="AB7" t="n">
-        <v>852.7813742548227</v>
+        <v>946.7795421999772</v>
       </c>
       <c r="AC7" t="n">
-        <v>771.3931167821175</v>
+        <v>856.4202315058441</v>
       </c>
       <c r="AD7" t="n">
-        <v>623266.9767990191</v>
+        <v>691966.8285177748</v>
       </c>
       <c r="AE7" t="n">
-        <v>852781.3742548227</v>
+        <v>946779.5421999772</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.439149779466499e-06</v>
+        <v>2.548841198193732e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.00771604938272</v>
       </c>
       <c r="AH7" t="n">
-        <v>771393.1167821175</v>
+        <v>856420.231505844</v>
       </c>
     </row>
     <row r="8">
@@ -15363,28 +15363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>599.2074342244878</v>
+        <v>677.6361073244357</v>
       </c>
       <c r="AB8" t="n">
-        <v>819.8620466722425</v>
+        <v>927.1716172364518</v>
       </c>
       <c r="AC8" t="n">
-        <v>741.6155636214525</v>
+        <v>838.6836593809419</v>
       </c>
       <c r="AD8" t="n">
-        <v>599207.4342244877</v>
+        <v>677636.1073244357</v>
       </c>
       <c r="AE8" t="n">
-        <v>819862.0466722425</v>
+        <v>927171.6172364517</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.451856391677269e-06</v>
+        <v>2.571345552607967e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.87654320987655</v>
       </c>
       <c r="AH8" t="n">
-        <v>741615.5636214524</v>
+        <v>838683.6593809419</v>
       </c>
     </row>
     <row r="9">
@@ -15469,28 +15469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>583.013058940158</v>
+        <v>661.4417320401061</v>
       </c>
       <c r="AB9" t="n">
-        <v>797.7041879628082</v>
+        <v>905.0137585270174</v>
       </c>
       <c r="AC9" t="n">
-        <v>721.5724198484965</v>
+        <v>818.6405156079859</v>
       </c>
       <c r="AD9" t="n">
-        <v>583013.058940158</v>
+        <v>661441.7320401061</v>
       </c>
       <c r="AE9" t="n">
-        <v>797704.1879628082</v>
+        <v>905013.7585270174</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.465514600397215e-06</v>
+        <v>2.59553525515014e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.73765432098766</v>
       </c>
       <c r="AH9" t="n">
-        <v>721572.4198484964</v>
+        <v>818640.5156079859</v>
       </c>
     </row>
     <row r="10">
@@ -15575,28 +15575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>573.9247256228133</v>
+        <v>652.3533987227613</v>
       </c>
       <c r="AB10" t="n">
-        <v>785.2691293690488</v>
+        <v>892.578699933258</v>
       </c>
       <c r="AC10" t="n">
-        <v>710.3241457942109</v>
+        <v>807.3922415537004</v>
       </c>
       <c r="AD10" t="n">
-        <v>573924.7256228133</v>
+        <v>652353.3987227613</v>
       </c>
       <c r="AE10" t="n">
-        <v>785269.1293690488</v>
+        <v>892578.699933258</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.468873176311956e-06</v>
+        <v>2.601483542660511e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.70293209876543</v>
       </c>
       <c r="AH10" t="n">
-        <v>710324.145794211</v>
+        <v>807392.2415537004</v>
       </c>
     </row>
     <row r="11">
@@ -15681,28 +15681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>558.2602093636079</v>
+        <v>636.688882463556</v>
       </c>
       <c r="AB11" t="n">
-        <v>763.8362471535198</v>
+        <v>871.1458177177291</v>
       </c>
       <c r="AC11" t="n">
-        <v>690.9367877760931</v>
+        <v>788.0048835355826</v>
       </c>
       <c r="AD11" t="n">
-        <v>558260.2093636079</v>
+        <v>636688.8824635559</v>
       </c>
       <c r="AE11" t="n">
-        <v>763836.2471535198</v>
+        <v>871145.817717729</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.479508666708636e-06</v>
+        <v>2.62031978644335e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.59876543209877</v>
       </c>
       <c r="AH11" t="n">
-        <v>690936.7877760931</v>
+        <v>788004.8835355826</v>
       </c>
     </row>
     <row r="12">
@@ -15787,28 +15787,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>556.2302622258602</v>
+        <v>634.6589353258081</v>
       </c>
       <c r="AB12" t="n">
-        <v>761.0587839247061</v>
+        <v>868.3683544889153</v>
       </c>
       <c r="AC12" t="n">
-        <v>688.4244017396431</v>
+        <v>785.4924974991327</v>
       </c>
       <c r="AD12" t="n">
-        <v>556230.2622258601</v>
+        <v>634658.9353258081</v>
       </c>
       <c r="AE12" t="n">
-        <v>761058.783924706</v>
+        <v>868368.3544889153</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.480796120809286e-06</v>
+        <v>2.622599963322325e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>688424.4017396432</v>
+        <v>785492.4974991326</v>
       </c>
     </row>
     <row r="13">
@@ -15893,28 +15893,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>558.6685662184941</v>
+        <v>637.0972393184421</v>
       </c>
       <c r="AB13" t="n">
-        <v>764.3949790178081</v>
+        <v>871.7045495820173</v>
       </c>
       <c r="AC13" t="n">
-        <v>691.4421950554388</v>
+        <v>788.5102908149282</v>
       </c>
       <c r="AD13" t="n">
-        <v>558668.5662184941</v>
+        <v>637097.2393184421</v>
       </c>
       <c r="AE13" t="n">
-        <v>764394.9790178081</v>
+        <v>871704.5495820174</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.480740144544041e-06</v>
+        <v>2.622500825197153e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>691442.1950554388</v>
+        <v>788510.2908149282</v>
       </c>
     </row>
   </sheetData>
@@ -16190,28 +16190,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1316.762161840134</v>
+        <v>1436.617869965449</v>
       </c>
       <c r="AB2" t="n">
-        <v>1801.652081276364</v>
+        <v>1965.643948794078</v>
       </c>
       <c r="AC2" t="n">
-        <v>1629.704935273924</v>
+        <v>1778.045649119779</v>
       </c>
       <c r="AD2" t="n">
-        <v>1316762.161840134</v>
+        <v>1436617.869965449</v>
       </c>
       <c r="AE2" t="n">
-        <v>1801652.081276363</v>
+        <v>1965643.948794078</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.145501770639946e-07</v>
+        <v>1.5948956510058e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.13657407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>1629704.935273924</v>
+        <v>1778045.649119779</v>
       </c>
     </row>
     <row r="3">
@@ -16296,28 +16296,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>881.5281768767088</v>
+        <v>981.379412105822</v>
       </c>
       <c r="AB3" t="n">
-        <v>1206.145741881139</v>
+        <v>1342.766607047212</v>
       </c>
       <c r="AC3" t="n">
-        <v>1091.032885112183</v>
+        <v>1214.614846655395</v>
       </c>
       <c r="AD3" t="n">
-        <v>881528.1768767089</v>
+        <v>981379.412105822</v>
       </c>
       <c r="AE3" t="n">
-        <v>1206145.741881139</v>
+        <v>1342766.607047212</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.183842013308925e-06</v>
+        <v>2.064517099068077e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.87422839506173</v>
       </c>
       <c r="AH3" t="n">
-        <v>1091032.885112183</v>
+        <v>1214614.846655395</v>
       </c>
     </row>
     <row r="4">
@@ -16402,28 +16402,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>778.393507735842</v>
+        <v>858.3257899404266</v>
       </c>
       <c r="AB4" t="n">
-        <v>1065.032337582124</v>
+        <v>1174.399212457849</v>
       </c>
       <c r="AC4" t="n">
-        <v>963.3871460655595</v>
+        <v>1062.316199900518</v>
       </c>
       <c r="AD4" t="n">
-        <v>778393.507735842</v>
+        <v>858325.7899404266</v>
       </c>
       <c r="AE4" t="n">
-        <v>1065032.337582124</v>
+        <v>1174399.212457849</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.286677490490034e-06</v>
+        <v>2.243853191759884e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.44675925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>963387.1460655595</v>
+        <v>1062316.199900518</v>
       </c>
     </row>
     <row r="5">
@@ -16508,28 +16508,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>727.0100321397783</v>
+        <v>807.0275656903837</v>
       </c>
       <c r="AB5" t="n">
-        <v>994.7271993926354</v>
+        <v>1104.21071892101</v>
       </c>
       <c r="AC5" t="n">
-        <v>899.7918315909942</v>
+        <v>998.8263976766656</v>
       </c>
       <c r="AD5" t="n">
-        <v>727010.0321397784</v>
+        <v>807027.5656903837</v>
       </c>
       <c r="AE5" t="n">
-        <v>994727.1993926354</v>
+        <v>1104210.71892101</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.337574195996204e-06</v>
+        <v>2.332612601902815e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.8179012345679</v>
       </c>
       <c r="AH5" t="n">
-        <v>899791.8315909943</v>
+        <v>998826.3976766656</v>
       </c>
     </row>
     <row r="6">
@@ -16614,28 +16614,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>698.971413749347</v>
+        <v>778.8183550993601</v>
       </c>
       <c r="AB6" t="n">
-        <v>956.3635247343052</v>
+        <v>1065.613632487833</v>
       </c>
       <c r="AC6" t="n">
-        <v>865.0895321982997</v>
+        <v>963.9129630013197</v>
       </c>
       <c r="AD6" t="n">
-        <v>698971.413749347</v>
+        <v>778818.3550993601</v>
       </c>
       <c r="AE6" t="n">
-        <v>956363.5247343052</v>
+        <v>1065613.632487833</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.370317011930669e-06</v>
+        <v>2.389713213815886e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.43981481481482</v>
       </c>
       <c r="AH6" t="n">
-        <v>865089.5321982997</v>
+        <v>963912.9630013197</v>
       </c>
     </row>
     <row r="7">
@@ -16720,28 +16720,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>681.47115151909</v>
+        <v>761.3180928691029</v>
       </c>
       <c r="AB7" t="n">
-        <v>932.4188938937867</v>
+        <v>1041.669001647314</v>
       </c>
       <c r="AC7" t="n">
-        <v>843.4301433186997</v>
+        <v>942.2535741217199</v>
       </c>
       <c r="AD7" t="n">
-        <v>681471.1515190899</v>
+        <v>761318.0928691028</v>
       </c>
       <c r="AE7" t="n">
-        <v>932418.8938937867</v>
+        <v>1041669.001647314</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.390116269137272e-06</v>
+        <v>2.424241389528816e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.21990740740741</v>
       </c>
       <c r="AH7" t="n">
-        <v>843430.1433186997</v>
+        <v>942253.5741217199</v>
       </c>
     </row>
     <row r="8">
@@ -16826,28 +16826,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>665.9574185141953</v>
+        <v>735.9728498795258</v>
       </c>
       <c r="AB8" t="n">
-        <v>911.1923199788935</v>
+        <v>1006.99052203577</v>
       </c>
       <c r="AC8" t="n">
-        <v>824.2294038265603</v>
+        <v>910.8847599327493</v>
       </c>
       <c r="AD8" t="n">
-        <v>665957.4185141952</v>
+        <v>735972.8498795258</v>
       </c>
       <c r="AE8" t="n">
-        <v>911192.3199788935</v>
+        <v>1006990.52203577</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.40580210725663e-06</v>
+        <v>2.451596121534073e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.05015432098765</v>
       </c>
       <c r="AH8" t="n">
-        <v>824229.4038265604</v>
+        <v>910884.7599327492</v>
       </c>
     </row>
     <row r="9">
@@ -16932,28 +16932,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>641.3908742882395</v>
+        <v>721.3230669842731</v>
       </c>
       <c r="AB9" t="n">
-        <v>877.5792903695004</v>
+        <v>986.9460427756771</v>
       </c>
       <c r="AC9" t="n">
-        <v>793.8243545869043</v>
+        <v>892.7532976406367</v>
       </c>
       <c r="AD9" t="n">
-        <v>641390.8742882395</v>
+        <v>721323.066984273</v>
       </c>
       <c r="AE9" t="n">
-        <v>877579.2903695004</v>
+        <v>986946.0427756772</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.419239276274962e-06</v>
+        <v>2.475029370979135e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.90740740740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>793824.3545869043</v>
+        <v>892753.2976406367</v>
       </c>
     </row>
     <row r="10">
@@ -17038,28 +17038,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>629.9873236978243</v>
+        <v>709.9195163938577</v>
       </c>
       <c r="AB10" t="n">
-        <v>861.9764493625484</v>
+        <v>971.3432017687251</v>
       </c>
       <c r="AC10" t="n">
-        <v>779.710626826931</v>
+        <v>878.6395698806633</v>
       </c>
       <c r="AD10" t="n">
-        <v>629987.3236978243</v>
+        <v>709919.5163938578</v>
       </c>
       <c r="AE10" t="n">
-        <v>861976.4493625483</v>
+        <v>971343.2017687251</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.42801457032775e-06</v>
+        <v>2.490332717555503e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.81867283950617</v>
       </c>
       <c r="AH10" t="n">
-        <v>779710.626826931</v>
+        <v>878639.5698806633</v>
       </c>
     </row>
     <row r="11">
@@ -17144,28 +17144,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>618.2654381023923</v>
+        <v>698.1976307984257</v>
       </c>
       <c r="AB11" t="n">
-        <v>845.9380483577836</v>
+        <v>955.3048007639601</v>
       </c>
       <c r="AC11" t="n">
-        <v>765.2029083040236</v>
+        <v>864.1318513577559</v>
       </c>
       <c r="AD11" t="n">
-        <v>618265.4381023922</v>
+        <v>698197.6307984258</v>
       </c>
       <c r="AE11" t="n">
-        <v>845938.0483577836</v>
+        <v>955304.8007639601</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.435802643799599e-06</v>
+        <v>2.503914437642029e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.73765432098766</v>
       </c>
       <c r="AH11" t="n">
-        <v>765202.9083040236</v>
+        <v>864131.8513577558</v>
       </c>
     </row>
     <row r="12">
@@ -17250,28 +17250,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>605.5710361034938</v>
+        <v>685.5032287995275</v>
       </c>
       <c r="AB12" t="n">
-        <v>828.5690075053999</v>
+        <v>937.9357599115766</v>
       </c>
       <c r="AC12" t="n">
-        <v>749.4915443329896</v>
+        <v>848.4204873867219</v>
       </c>
       <c r="AD12" t="n">
-        <v>605571.0361034939</v>
+        <v>685503.2287995275</v>
       </c>
       <c r="AE12" t="n">
-        <v>828569.0075053999</v>
+        <v>937935.7599115766</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.443481026095788e-06</v>
+        <v>2.51730486589635e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.6604938271605</v>
       </c>
       <c r="AH12" t="n">
-        <v>749491.5443329896</v>
+        <v>848420.4873867219</v>
       </c>
     </row>
     <row r="13">
@@ -17356,28 +17356,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>597.3043321208248</v>
+        <v>677.2365248168584</v>
       </c>
       <c r="AB13" t="n">
-        <v>817.2581384150717</v>
+        <v>926.6248908212483</v>
       </c>
       <c r="AC13" t="n">
-        <v>739.2601687137377</v>
+        <v>838.18911176747</v>
       </c>
       <c r="AD13" t="n">
-        <v>597304.3321208248</v>
+        <v>677236.5248168583</v>
       </c>
       <c r="AE13" t="n">
-        <v>817258.1384150716</v>
+        <v>926624.8908212483</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.447923518710013e-06</v>
+        <v>2.525052185100637e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.6141975308642</v>
       </c>
       <c r="AH13" t="n">
-        <v>739260.1687137377</v>
+        <v>838189.11176747</v>
       </c>
     </row>
     <row r="14">
@@ -17462,28 +17462,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>586.4048584195838</v>
+        <v>666.3370511156173</v>
       </c>
       <c r="AB14" t="n">
-        <v>802.3449976461907</v>
+        <v>911.7117500523676</v>
       </c>
       <c r="AC14" t="n">
-        <v>725.7703171691143</v>
+        <v>824.6992602228466</v>
       </c>
       <c r="AD14" t="n">
-        <v>586404.8584195838</v>
+        <v>666337.0511156173</v>
       </c>
       <c r="AE14" t="n">
-        <v>802344.9976461907</v>
+        <v>911711.7500523676</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.452804776026876e-06</v>
+        <v>2.533564671633741e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.56404320987654</v>
       </c>
       <c r="AH14" t="n">
-        <v>725770.3171691142</v>
+        <v>824699.2602228466</v>
       </c>
     </row>
     <row r="15">
@@ -17568,28 +17568,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>588.2679786579088</v>
+        <v>668.2001713539422</v>
       </c>
       <c r="AB15" t="n">
-        <v>804.8942009513308</v>
+        <v>914.2609533575073</v>
       </c>
       <c r="AC15" t="n">
-        <v>728.0762280886411</v>
+        <v>827.0051711423733</v>
       </c>
       <c r="AD15" t="n">
-        <v>588267.9786579087</v>
+        <v>668200.1713539422</v>
       </c>
       <c r="AE15" t="n">
-        <v>804894.2009513308</v>
+        <v>914260.9533575074</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.452695084851216e-06</v>
+        <v>2.533373379801537e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.56404320987654</v>
       </c>
       <c r="AH15" t="n">
-        <v>728076.2280886411</v>
+        <v>827005.1711423734</v>
       </c>
     </row>
   </sheetData>
@@ -17865,28 +17865,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1753.356483787753</v>
+        <v>1897.82450526648</v>
       </c>
       <c r="AB2" t="n">
-        <v>2399.019693747194</v>
+        <v>2596.687214213678</v>
       </c>
       <c r="AC2" t="n">
-        <v>2170.060621221248</v>
+        <v>2348.863030962519</v>
       </c>
       <c r="AD2" t="n">
-        <v>1753356.483787753</v>
+        <v>1897824.50526648</v>
       </c>
       <c r="AE2" t="n">
-        <v>2399019.693747194</v>
+        <v>2596687.214213678</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.731098791807e-07</v>
+        <v>1.314235555684011e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.4158950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>2170060.621221248</v>
+        <v>2348863.030962519</v>
       </c>
     </row>
     <row r="3">
@@ -17971,28 +17971,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1079.782658489154</v>
+        <v>1172.819575912349</v>
       </c>
       <c r="AB3" t="n">
-        <v>1477.406269993728</v>
+        <v>1604.703484911259</v>
       </c>
       <c r="AC3" t="n">
-        <v>1336.404689138249</v>
+        <v>1451.552836526814</v>
       </c>
       <c r="AD3" t="n">
-        <v>1079782.658489154</v>
+        <v>1172819.575912349</v>
       </c>
       <c r="AE3" t="n">
-        <v>1477406.269993728</v>
+        <v>1604703.484911259</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.068664005137003e-06</v>
+        <v>1.816657981552529e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.11265432098766</v>
       </c>
       <c r="AH3" t="n">
-        <v>1336404.689138249</v>
+        <v>1451552.836526814</v>
       </c>
     </row>
     <row r="4">
@@ -18077,28 +18077,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>927.2098779601511</v>
+        <v>1020.076113674203</v>
       </c>
       <c r="AB4" t="n">
-        <v>1268.649460637922</v>
+        <v>1395.713141311058</v>
       </c>
       <c r="AC4" t="n">
-        <v>1147.571336675339</v>
+        <v>1262.508238000027</v>
       </c>
       <c r="AD4" t="n">
-        <v>927209.8779601511</v>
+        <v>1020076.113674203</v>
       </c>
       <c r="AE4" t="n">
-        <v>1268649.460637922</v>
+        <v>1395713.141311058</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.183275268381745e-06</v>
+        <v>2.011489533049097e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.2608024691358</v>
       </c>
       <c r="AH4" t="n">
-        <v>1147571.336675339</v>
+        <v>1262508.238000027</v>
       </c>
     </row>
     <row r="5">
@@ -18183,28 +18183,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>857.9643695908557</v>
+        <v>940.57852083563</v>
       </c>
       <c r="AB5" t="n">
-        <v>1173.904701190826</v>
+        <v>1286.941027603051</v>
       </c>
       <c r="AC5" t="n">
-        <v>1061.868884094769</v>
+        <v>1164.117182161691</v>
       </c>
       <c r="AD5" t="n">
-        <v>857964.3695908557</v>
+        <v>940578.52083563</v>
       </c>
       <c r="AE5" t="n">
-        <v>1173904.701190826</v>
+        <v>1286941.027603051</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.244048353926763e-06</v>
+        <v>2.114799750655591e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.41589506172839</v>
       </c>
       <c r="AH5" t="n">
-        <v>1061868.884094769</v>
+        <v>1164117.182161691</v>
       </c>
     </row>
     <row r="6">
@@ -18289,28 +18289,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>812.2518670122535</v>
+        <v>905.1180132177545</v>
       </c>
       <c r="AB6" t="n">
-        <v>1111.3588384695</v>
+        <v>1238.422396673088</v>
       </c>
       <c r="AC6" t="n">
-        <v>1005.292310727897</v>
+        <v>1120.229101271358</v>
       </c>
       <c r="AD6" t="n">
-        <v>812251.8670122535</v>
+        <v>905118.0132177545</v>
       </c>
       <c r="AE6" t="n">
-        <v>1111358.8384695</v>
+        <v>1238422.396673088</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.282216816189793e-06</v>
+        <v>2.17968360683528e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.92978395061728</v>
       </c>
       <c r="AH6" t="n">
-        <v>1005292.310727897</v>
+        <v>1120229.101271358</v>
       </c>
     </row>
     <row r="7">
@@ -18395,28 +18395,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>787.8726604117837</v>
+        <v>870.5720630025785</v>
       </c>
       <c r="AB7" t="n">
-        <v>1078.002132464049</v>
+        <v>1191.155103528923</v>
       </c>
       <c r="AC7" t="n">
-        <v>975.1191219271751</v>
+        <v>1077.47293224481</v>
       </c>
       <c r="AD7" t="n">
-        <v>787872.6604117837</v>
+        <v>870572.0630025784</v>
       </c>
       <c r="AE7" t="n">
-        <v>1078002.132464049</v>
+        <v>1191155.103528923</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.308262424280515e-06</v>
+        <v>2.223959414380921e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.60956790123457</v>
       </c>
       <c r="AH7" t="n">
-        <v>975119.1219271751</v>
+        <v>1077472.93224481</v>
       </c>
     </row>
     <row r="8">
@@ -18501,28 +18501,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>774.8626120671515</v>
+        <v>857.3914224573543</v>
       </c>
       <c r="AB8" t="n">
-        <v>1060.201210356099</v>
+        <v>1173.120769646126</v>
       </c>
       <c r="AC8" t="n">
-        <v>959.0170948414566</v>
+        <v>1061.15976987644</v>
       </c>
       <c r="AD8" t="n">
-        <v>774862.6120671516</v>
+        <v>857391.4224573544</v>
       </c>
       <c r="AE8" t="n">
-        <v>1060201.210356099</v>
+        <v>1173120.769646126</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.321973425287622e-06</v>
+        <v>2.247267207377508e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.44753086419753</v>
       </c>
       <c r="AH8" t="n">
-        <v>959017.0948414566</v>
+        <v>1061159.76987644</v>
       </c>
     </row>
     <row r="9">
@@ -18607,28 +18607,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>758.0720312005491</v>
+        <v>840.6008415907519</v>
       </c>
       <c r="AB9" t="n">
-        <v>1037.227596866265</v>
+        <v>1150.147156156292</v>
       </c>
       <c r="AC9" t="n">
-        <v>938.2360507794233</v>
+        <v>1040.378725814407</v>
       </c>
       <c r="AD9" t="n">
-        <v>758072.0312005491</v>
+        <v>840600.8415907519</v>
       </c>
       <c r="AE9" t="n">
-        <v>1037227.596866265</v>
+        <v>1150147.156156292</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.339019534647811e-06</v>
+        <v>2.276244463535427e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.25077160493827</v>
       </c>
       <c r="AH9" t="n">
-        <v>938236.0507794233</v>
+        <v>1040378.725814407</v>
       </c>
     </row>
     <row r="10">
@@ -18713,28 +18713,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>745.3452973953886</v>
+        <v>817.7073641708852</v>
       </c>
       <c r="AB10" t="n">
-        <v>1019.814318210175</v>
+        <v>1118.823290361488</v>
       </c>
       <c r="AC10" t="n">
-        <v>922.4846709985806</v>
+        <v>1012.044365807737</v>
       </c>
       <c r="AD10" t="n">
-        <v>745345.2973953886</v>
+        <v>817707.3641708852</v>
       </c>
       <c r="AE10" t="n">
-        <v>1019814.318210175</v>
+        <v>1118823.290361488</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.350613006541851e-06</v>
+        <v>2.295952597381962e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.12345679012346</v>
       </c>
       <c r="AH10" t="n">
-        <v>922484.6709985805</v>
+        <v>1012044.365807737</v>
       </c>
     </row>
     <row r="11">
@@ -18819,28 +18819,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>733.8934119629881</v>
+        <v>806.2554787384843</v>
       </c>
       <c r="AB11" t="n">
-        <v>1004.145343340036</v>
+        <v>1103.154315491349</v>
       </c>
       <c r="AC11" t="n">
-        <v>908.3111210985031</v>
+        <v>997.8708159076599</v>
       </c>
       <c r="AD11" t="n">
-        <v>733893.4119629881</v>
+        <v>806255.4787384843</v>
       </c>
       <c r="AE11" t="n">
-        <v>1004145.343340036</v>
+        <v>1103154.315491349</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.359877196411519e-06</v>
+        <v>2.31170110616344e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.01929012345679</v>
       </c>
       <c r="AH11" t="n">
-        <v>908311.1210985031</v>
+        <v>997870.8159076599</v>
       </c>
     </row>
     <row r="12">
@@ -18925,28 +18925,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>714.4411027173709</v>
+        <v>797.055164453594</v>
       </c>
       <c r="AB12" t="n">
-        <v>977.5298356548659</v>
+        <v>1090.566039597542</v>
       </c>
       <c r="AC12" t="n">
-        <v>884.2357601117061</v>
+        <v>986.4839473974018</v>
       </c>
       <c r="AD12" t="n">
-        <v>714441.1027173708</v>
+        <v>797055.164453594</v>
       </c>
       <c r="AE12" t="n">
-        <v>977529.835654866</v>
+        <v>1090566.039597542</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.367076795395946e-06</v>
+        <v>2.323939947273617e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.93827160493827</v>
       </c>
       <c r="AH12" t="n">
-        <v>884235.7601117061</v>
+        <v>986483.9473974018</v>
       </c>
     </row>
     <row r="13">
@@ -19031,28 +19031,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>707.4245443307638</v>
+        <v>790.0386060669872</v>
       </c>
       <c r="AB13" t="n">
-        <v>967.9294709216011</v>
+        <v>1080.965674864277</v>
       </c>
       <c r="AC13" t="n">
-        <v>875.5516407143874</v>
+        <v>977.7998280000833</v>
       </c>
       <c r="AD13" t="n">
-        <v>707424.5443307637</v>
+        <v>790038.6060669872</v>
       </c>
       <c r="AE13" t="n">
-        <v>967929.4709216012</v>
+        <v>1080965.674864277</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.37099422425512e-06</v>
+        <v>2.330599316701213e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>875551.6407143874</v>
+        <v>977799.8280000832</v>
       </c>
     </row>
     <row r="14">
@@ -19137,28 +19137,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>698.1358226640822</v>
+        <v>780.7498844003055</v>
       </c>
       <c r="AB14" t="n">
-        <v>955.2202321477688</v>
+        <v>1068.256436090445</v>
       </c>
       <c r="AC14" t="n">
-        <v>864.055353851601</v>
+        <v>966.3035411372969</v>
       </c>
       <c r="AD14" t="n">
-        <v>698135.8226640822</v>
+        <v>780749.8844003056</v>
       </c>
       <c r="AE14" t="n">
-        <v>955220.2321477688</v>
+        <v>1068256.436090445</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.37798207032824e-06</v>
+        <v>2.342478191896385e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.82253086419753</v>
       </c>
       <c r="AH14" t="n">
-        <v>864055.353851601</v>
+        <v>966303.5411372968</v>
       </c>
     </row>
     <row r="15">
@@ -19243,28 +19243,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>688.9104208516302</v>
+        <v>771.5244825878532</v>
       </c>
       <c r="AB15" t="n">
-        <v>942.5976303919682</v>
+        <v>1055.633834334644</v>
       </c>
       <c r="AC15" t="n">
-        <v>852.6374354914412</v>
+        <v>954.885622777137</v>
       </c>
       <c r="AD15" t="n">
-        <v>688910.4208516302</v>
+        <v>771524.4825878532</v>
       </c>
       <c r="AE15" t="n">
-        <v>942597.6303919682</v>
+        <v>1055633.834334644</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.383011201971774e-06</v>
+        <v>2.351027382377759e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.76851851851852</v>
       </c>
       <c r="AH15" t="n">
-        <v>852637.4354914413</v>
+        <v>954885.622777137</v>
       </c>
     </row>
     <row r="16">
@@ -19349,28 +19349,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>680.0979058580377</v>
+        <v>762.7119675942611</v>
       </c>
       <c r="AB16" t="n">
-        <v>930.5399585970123</v>
+        <v>1043.576162539689</v>
       </c>
       <c r="AC16" t="n">
-        <v>841.7305309695473</v>
+        <v>943.9787182552433</v>
       </c>
       <c r="AD16" t="n">
-        <v>680097.9058580378</v>
+        <v>762711.967594261</v>
       </c>
       <c r="AE16" t="n">
-        <v>930539.9585970123</v>
+        <v>1043576.162539689</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.388569715893574e-06</v>
+        <v>2.360476487646645e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.70679012345679</v>
       </c>
       <c r="AH16" t="n">
-        <v>841730.5309695473</v>
+        <v>943978.7182552433</v>
       </c>
     </row>
     <row r="17">
@@ -19455,28 +19455,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>672.9544599857641</v>
+        <v>755.5685217219875</v>
       </c>
       <c r="AB17" t="n">
-        <v>920.7659808079775</v>
+        <v>1033.802184750654</v>
       </c>
       <c r="AC17" t="n">
-        <v>832.8893679028342</v>
+        <v>935.1375551885299</v>
       </c>
       <c r="AD17" t="n">
-        <v>672954.4599857641</v>
+        <v>755568.5217219875</v>
       </c>
       <c r="AE17" t="n">
-        <v>920765.9808079775</v>
+        <v>1033802.184750654</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.390528430323161e-06</v>
+        <v>2.363806172360444e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH17" t="n">
-        <v>832889.3679028342</v>
+        <v>935137.5551885299</v>
       </c>
     </row>
     <row r="18">
@@ -19561,28 +19561,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>667.2404653574941</v>
+        <v>749.8545270937174</v>
       </c>
       <c r="AB18" t="n">
-        <v>912.9478412739269</v>
+        <v>1025.984045216603</v>
       </c>
       <c r="AC18" t="n">
-        <v>825.8173806330855</v>
+        <v>928.0655679187813</v>
       </c>
       <c r="AD18" t="n">
-        <v>667240.4653574942</v>
+        <v>749854.5270937174</v>
       </c>
       <c r="AE18" t="n">
-        <v>912947.8412739269</v>
+        <v>1025984.045216603</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.391798947791001e-06</v>
+        <v>2.365965967850475e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.67592592592593</v>
       </c>
       <c r="AH18" t="n">
-        <v>825817.3806330855</v>
+        <v>928065.5679187813</v>
       </c>
     </row>
     <row r="19">
@@ -19667,28 +19667,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>657.1021273277125</v>
+        <v>739.7161890639356</v>
       </c>
       <c r="AB19" t="n">
-        <v>899.0761199096728</v>
+        <v>1012.112323852349</v>
       </c>
       <c r="AC19" t="n">
-        <v>813.2695568867524</v>
+        <v>915.517744172448</v>
       </c>
       <c r="AD19" t="n">
-        <v>657102.1273277125</v>
+        <v>739716.1890639357</v>
       </c>
       <c r="AE19" t="n">
-        <v>899076.1199096728</v>
+        <v>1012112.323852349</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.397569214624108e-06</v>
+        <v>2.375775039034367e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.6141975308642</v>
       </c>
       <c r="AH19" t="n">
-        <v>813269.5568867524</v>
+        <v>915517.7441724481</v>
       </c>
     </row>
     <row r="20">
@@ -19773,28 +19773,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>652.3310822450228</v>
+        <v>734.945143981246</v>
       </c>
       <c r="AB20" t="n">
-        <v>892.5481655438826</v>
+        <v>1005.584369486559</v>
       </c>
       <c r="AC20" t="n">
-        <v>807.3646213235918</v>
+        <v>909.6128086092878</v>
       </c>
       <c r="AD20" t="n">
-        <v>652331.0822450228</v>
+        <v>734945.143981246</v>
       </c>
       <c r="AE20" t="n">
-        <v>892548.1655438826</v>
+        <v>1005584.369486559</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.397039832345841e-06</v>
+        <v>2.374875124246853e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.61805555555556</v>
       </c>
       <c r="AH20" t="n">
-        <v>807364.6213235918</v>
+        <v>909612.8086092877</v>
       </c>
     </row>
     <row r="21">
@@ -19879,28 +19879,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>653.0210230223292</v>
+        <v>735.6350847585525</v>
       </c>
       <c r="AB21" t="n">
-        <v>893.4921729534324</v>
+        <v>1006.528376896109</v>
       </c>
       <c r="AC21" t="n">
-        <v>808.2185339908967</v>
+        <v>910.4667212765926</v>
       </c>
       <c r="AD21" t="n">
-        <v>653021.0230223292</v>
+        <v>735635.0847585525</v>
       </c>
       <c r="AE21" t="n">
-        <v>893492.1729534324</v>
+        <v>1006528.376896109</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.399316176142388e-06</v>
+        <v>2.37874475783316e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.59490740740741</v>
       </c>
       <c r="AH21" t="n">
-        <v>808218.5339908968</v>
+        <v>910466.7212765926</v>
       </c>
     </row>
   </sheetData>
@@ -20176,28 +20176,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>966.344322627014</v>
+        <v>1062.340534892533</v>
       </c>
       <c r="AB2" t="n">
-        <v>1322.194934320973</v>
+        <v>1453.541186996646</v>
       </c>
       <c r="AC2" t="n">
-        <v>1196.006505501623</v>
+        <v>1314.817256167554</v>
       </c>
       <c r="AD2" t="n">
-        <v>966344.322627014</v>
+        <v>1062340.534892533</v>
       </c>
       <c r="AE2" t="n">
-        <v>1322194.934320973</v>
+        <v>1453541.186996646</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.08374035734708e-06</v>
+        <v>1.954240320552598e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.38966049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>1196006.505501623</v>
+        <v>1314817.256167554</v>
       </c>
     </row>
     <row r="3">
@@ -20282,28 +20282,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>705.9740984742032</v>
+        <v>792.3620748700175</v>
       </c>
       <c r="AB3" t="n">
-        <v>965.9449069114996</v>
+        <v>1084.144747384793</v>
       </c>
       <c r="AC3" t="n">
-        <v>873.7564807080571</v>
+        <v>980.6754943010969</v>
       </c>
       <c r="AD3" t="n">
-        <v>705974.0984742031</v>
+        <v>792362.0748700175</v>
       </c>
       <c r="AE3" t="n">
-        <v>965944.9069114997</v>
+        <v>1084144.747384793</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.31969714391739e-06</v>
+        <v>2.379726243539264e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.74382716049383</v>
       </c>
       <c r="AH3" t="n">
-        <v>873756.4807080571</v>
+        <v>980675.4943010969</v>
       </c>
     </row>
     <row r="4">
@@ -20388,28 +20388,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>636.1072801574747</v>
+        <v>712.9724510467066</v>
       </c>
       <c r="AB4" t="n">
-        <v>870.3500437840661</v>
+        <v>975.5203616467244</v>
       </c>
       <c r="AC4" t="n">
-        <v>787.2850571492727</v>
+        <v>882.4180674825869</v>
       </c>
       <c r="AD4" t="n">
-        <v>636107.2801574748</v>
+        <v>712972.4510467066</v>
       </c>
       <c r="AE4" t="n">
-        <v>870350.0437840661</v>
+        <v>975520.3616467244</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.403713795834536e-06</v>
+        <v>2.531228148641556e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.74074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>787285.0571492726</v>
+        <v>882418.067482587</v>
       </c>
     </row>
     <row r="5">
@@ -20494,28 +20494,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>602.8844443001461</v>
+        <v>679.5790229887858</v>
       </c>
       <c r="AB5" t="n">
-        <v>824.893094075994</v>
+        <v>929.8300001638053</v>
       </c>
       <c r="AC5" t="n">
-        <v>746.1664549221093</v>
+        <v>841.0883299727726</v>
       </c>
       <c r="AD5" t="n">
-        <v>602884.4443001461</v>
+        <v>679579.0229887859</v>
       </c>
       <c r="AE5" t="n">
-        <v>824893.094075994</v>
+        <v>929830.0001638053</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.447812515654716e-06</v>
+        <v>2.61074857599586e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.26234567901235</v>
       </c>
       <c r="AH5" t="n">
-        <v>746166.4549221094</v>
+        <v>841088.3299727726</v>
       </c>
     </row>
     <row r="6">
@@ -20600,28 +20600,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>572.1327991501128</v>
+        <v>648.912629184773</v>
       </c>
       <c r="AB6" t="n">
-        <v>782.8173365148831</v>
+        <v>887.8708872553436</v>
       </c>
       <c r="AC6" t="n">
-        <v>708.1063486089341</v>
+        <v>803.1337359103097</v>
       </c>
       <c r="AD6" t="n">
-        <v>572132.7991501128</v>
+        <v>648912.629184773</v>
       </c>
       <c r="AE6" t="n">
-        <v>782817.3365148831</v>
+        <v>887870.8872553436</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.473240868382195e-06</v>
+        <v>2.656601913327433e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.99614197530864</v>
       </c>
       <c r="AH6" t="n">
-        <v>708106.3486089341</v>
+        <v>803133.7359103097</v>
       </c>
     </row>
     <row r="7">
@@ -20706,28 +20706,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>553.6145853720177</v>
+        <v>630.3944154066781</v>
       </c>
       <c r="AB7" t="n">
-        <v>757.4798994577603</v>
+        <v>862.5334501982207</v>
       </c>
       <c r="AC7" t="n">
-        <v>685.1870809832268</v>
+        <v>780.2144682846024</v>
       </c>
       <c r="AD7" t="n">
-        <v>553614.5853720177</v>
+        <v>630394.4154066781</v>
       </c>
       <c r="AE7" t="n">
-        <v>757479.8994577603</v>
+        <v>862533.4501982208</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.492197590798402e-06</v>
+        <v>2.690785369761556e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.8070987654321</v>
       </c>
       <c r="AH7" t="n">
-        <v>685187.0809832268</v>
+        <v>780214.4682846024</v>
       </c>
     </row>
     <row r="8">
@@ -20812,28 +20812,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>536.3362182277732</v>
+        <v>613.1160482624335</v>
       </c>
       <c r="AB8" t="n">
-        <v>733.8388752632445</v>
+        <v>838.8924260037051</v>
       </c>
       <c r="AC8" t="n">
-        <v>663.80232295745</v>
+        <v>758.8297102588255</v>
       </c>
       <c r="AD8" t="n">
-        <v>536336.2182277732</v>
+        <v>613116.0482624335</v>
       </c>
       <c r="AE8" t="n">
-        <v>733838.8752632445</v>
+        <v>838892.426003705</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.50445359864453e-06</v>
+        <v>2.712885852169116e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH8" t="n">
-        <v>663802.3229574499</v>
+        <v>758829.7102588254</v>
       </c>
     </row>
     <row r="9">
@@ -20918,28 +20918,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>525.1644412089297</v>
+        <v>601.9442712435899</v>
       </c>
       <c r="AB9" t="n">
-        <v>718.5531570820456</v>
+        <v>823.6067078225061</v>
       </c>
       <c r="AC9" t="n">
-        <v>649.9754522658242</v>
+        <v>745.0028395671998</v>
       </c>
       <c r="AD9" t="n">
-        <v>525164.4412089298</v>
+        <v>601944.2712435899</v>
       </c>
       <c r="AE9" t="n">
-        <v>718553.1570820456</v>
+        <v>823606.7078225061</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.511956108120431e-06</v>
+        <v>2.726414652147576e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.6141975308642</v>
       </c>
       <c r="AH9" t="n">
-        <v>649975.4522658242</v>
+        <v>745002.8395671998</v>
       </c>
     </row>
     <row r="10">
@@ -21024,28 +21024,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>522.1362663036946</v>
+        <v>598.9160963383549</v>
       </c>
       <c r="AB10" t="n">
-        <v>714.4098745830545</v>
+        <v>819.4634253235149</v>
       </c>
       <c r="AC10" t="n">
-        <v>646.2275988334035</v>
+        <v>741.254986134779</v>
       </c>
       <c r="AD10" t="n">
-        <v>522136.2663036946</v>
+        <v>598916.0963383549</v>
       </c>
       <c r="AE10" t="n">
-        <v>714409.8745830545</v>
+        <v>819463.425323515</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.515907811584836e-06</v>
+        <v>2.733540508624779e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.57561728395062</v>
       </c>
       <c r="AH10" t="n">
-        <v>646227.5988334034</v>
+        <v>741254.9861347789</v>
       </c>
     </row>
   </sheetData>
@@ -21321,28 +21321,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>739.4517399618404</v>
+        <v>831.8836041020313</v>
       </c>
       <c r="AB2" t="n">
-        <v>1011.750492924191</v>
+        <v>1138.219847246849</v>
       </c>
       <c r="AC2" t="n">
-        <v>915.1904458802408</v>
+        <v>1029.589742527198</v>
       </c>
       <c r="AD2" t="n">
-        <v>739451.7399618404</v>
+        <v>831883.6041020313</v>
       </c>
       <c r="AE2" t="n">
-        <v>1011750.492924191</v>
+        <v>1138219.847246849</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.241173554918651e-06</v>
+        <v>2.315633121364911e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.54552469135803</v>
       </c>
       <c r="AH2" t="n">
-        <v>915190.4458802408</v>
+        <v>1029589.742527198</v>
       </c>
     </row>
     <row r="3">
@@ -21427,28 +21427,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>572.4827086443756</v>
+        <v>655.5775114305187</v>
       </c>
       <c r="AB3" t="n">
-        <v>783.2960981218512</v>
+        <v>896.9900731778257</v>
       </c>
       <c r="AC3" t="n">
-        <v>708.5394178800794</v>
+        <v>811.382599527208</v>
       </c>
       <c r="AD3" t="n">
-        <v>572482.7086443757</v>
+        <v>655577.5114305187</v>
       </c>
       <c r="AE3" t="n">
-        <v>783296.0981218512</v>
+        <v>896990.0731778257</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.44353167548025e-06</v>
+        <v>2.693168692029165e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.94521604938272</v>
       </c>
       <c r="AH3" t="n">
-        <v>708539.4178800795</v>
+        <v>811382.5995272079</v>
       </c>
     </row>
     <row r="4">
@@ -21533,28 +21533,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>527.8653145659191</v>
+        <v>601.7084863611368</v>
       </c>
       <c r="AB4" t="n">
-        <v>722.2486111632014</v>
+        <v>823.2840965442388</v>
       </c>
       <c r="AC4" t="n">
-        <v>653.318217396077</v>
+        <v>744.7110178565425</v>
       </c>
       <c r="AD4" t="n">
-        <v>527865.3145659191</v>
+        <v>601708.4863611368</v>
       </c>
       <c r="AE4" t="n">
-        <v>722248.6111632014</v>
+        <v>823284.0965442387</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.513330909282452e-06</v>
+        <v>2.823391751485879e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.20833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>653318.217396077</v>
+        <v>744711.0178565425</v>
       </c>
     </row>
     <row r="5">
@@ -21639,28 +21639,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>492.1703883230114</v>
+        <v>566.0988114642497</v>
       </c>
       <c r="AB5" t="n">
-        <v>673.4092383286494</v>
+        <v>774.5613683623361</v>
       </c>
       <c r="AC5" t="n">
-        <v>609.1400057583643</v>
+        <v>700.6383184695422</v>
       </c>
       <c r="AD5" t="n">
-        <v>492170.3883230113</v>
+        <v>566098.8114642497</v>
       </c>
       <c r="AE5" t="n">
-        <v>673409.2383286494</v>
+        <v>774561.3683623361</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.546798747028636e-06</v>
+        <v>2.88583203896897e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.8804012345679</v>
       </c>
       <c r="AH5" t="n">
-        <v>609140.0057583643</v>
+        <v>700638.3184695422</v>
       </c>
     </row>
     <row r="6">
@@ -21745,28 +21745,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>472.5813458238888</v>
+        <v>546.5097689651271</v>
       </c>
       <c r="AB6" t="n">
-        <v>646.6066461737876</v>
+        <v>747.7587762074743</v>
       </c>
       <c r="AC6" t="n">
-        <v>584.8954153810882</v>
+        <v>676.393728092266</v>
       </c>
       <c r="AD6" t="n">
-        <v>472581.3458238888</v>
+        <v>546509.7689651272</v>
       </c>
       <c r="AE6" t="n">
-        <v>646606.6461737875</v>
+        <v>747758.7762074743</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.568394749281967e-06</v>
+        <v>2.926123276168398e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.67592592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>584895.4153810883</v>
+        <v>676393.728092266</v>
       </c>
     </row>
     <row r="7">
@@ -21851,28 +21851,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>469.8193234425187</v>
+        <v>543.747746583757</v>
       </c>
       <c r="AB7" t="n">
-        <v>642.8275252997694</v>
+        <v>743.9796553334561</v>
       </c>
       <c r="AC7" t="n">
-        <v>581.4769684992568</v>
+        <v>672.9752812104347</v>
       </c>
       <c r="AD7" t="n">
-        <v>469819.3234425187</v>
+        <v>543747.746583757</v>
       </c>
       <c r="AE7" t="n">
-        <v>642827.5252997694</v>
+        <v>743979.6553334561</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.572153169563624e-06</v>
+        <v>2.933135287062221e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.6412037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>581476.9684992569</v>
+        <v>672975.2812104346</v>
       </c>
     </row>
   </sheetData>
@@ -40713,28 +40713,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>600.6136684144448</v>
+        <v>681.144480032287</v>
       </c>
       <c r="AB2" t="n">
-        <v>821.7861183296158</v>
+        <v>931.971927553814</v>
       </c>
       <c r="AC2" t="n">
-        <v>743.3560045802975</v>
+        <v>843.0258348188929</v>
       </c>
       <c r="AD2" t="n">
-        <v>600613.6684144448</v>
+        <v>681144.480032287</v>
       </c>
       <c r="AE2" t="n">
-        <v>821786.1183296158</v>
+        <v>931971.927553814</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.367681303939121e-06</v>
+        <v>2.630101866031941e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.4074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>743356.0045802975</v>
+        <v>843025.8348188929</v>
       </c>
     </row>
     <row r="3">
@@ -40819,28 +40819,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>484.7508872246223</v>
+        <v>556.3148761959717</v>
       </c>
       <c r="AB3" t="n">
-        <v>663.2575496005466</v>
+        <v>761.1745564915175</v>
       </c>
       <c r="AC3" t="n">
-        <v>599.9571799544871</v>
+        <v>688.5291251351661</v>
       </c>
       <c r="AD3" t="n">
-        <v>484750.8872246223</v>
+        <v>556314.8761959717</v>
       </c>
       <c r="AE3" t="n">
-        <v>663257.5496005466</v>
+        <v>761174.5564915175</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.543069367552287e-06</v>
+        <v>2.967379616382215e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.42824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>599957.179954487</v>
+        <v>688529.1251351661</v>
       </c>
     </row>
     <row r="4">
@@ -40925,28 +40925,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>434.1204147138932</v>
+        <v>505.7696550312632</v>
       </c>
       <c r="AB4" t="n">
-        <v>593.9827034525634</v>
+        <v>692.0163549961837</v>
       </c>
       <c r="AC4" t="n">
-        <v>537.2938278950104</v>
+        <v>625.9712853264017</v>
       </c>
       <c r="AD4" t="n">
-        <v>434120.4147138932</v>
+        <v>505769.6550312632</v>
       </c>
       <c r="AE4" t="n">
-        <v>593982.7034525635</v>
+        <v>692016.3549961838</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.609842726042592e-06</v>
+        <v>3.095787260956105e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.78780864197531</v>
       </c>
       <c r="AH4" t="n">
-        <v>537293.8278950104</v>
+        <v>625971.2853264017</v>
       </c>
     </row>
     <row r="5">
@@ -41031,28 +41031,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>429.9418404307614</v>
+        <v>501.5910807481314</v>
       </c>
       <c r="AB5" t="n">
-        <v>588.2653937726958</v>
+        <v>686.299045316316</v>
       </c>
       <c r="AC5" t="n">
-        <v>532.1221702266946</v>
+        <v>620.7996276580859</v>
       </c>
       <c r="AD5" t="n">
-        <v>429941.8404307615</v>
+        <v>501591.0807481314</v>
       </c>
       <c r="AE5" t="n">
-        <v>588265.3937726958</v>
+        <v>686299.045316316</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.613607212981509e-06</v>
+        <v>3.103026508940401e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.75694444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>532122.1702266946</v>
+        <v>620799.6276580859</v>
       </c>
     </row>
   </sheetData>
@@ -41328,28 +41328,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>371.509803497128</v>
+        <v>438.726337497949</v>
       </c>
       <c r="AB2" t="n">
-        <v>508.3161030005638</v>
+        <v>600.284730204681</v>
       </c>
       <c r="AC2" t="n">
-        <v>459.8031275563205</v>
+        <v>542.9943980588557</v>
       </c>
       <c r="AD2" t="n">
-        <v>371509.803497128</v>
+        <v>438726.337497949</v>
       </c>
       <c r="AE2" t="n">
-        <v>508316.1030005638</v>
+        <v>600284.7302046809</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.635716986006362e-06</v>
+        <v>3.373828745278234e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.62114197530864</v>
       </c>
       <c r="AH2" t="n">
-        <v>459803.1275563205</v>
+        <v>542994.3980588557</v>
       </c>
     </row>
     <row r="3">
@@ -41434,28 +41434,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>360.6729521108953</v>
+        <v>427.7188939111241</v>
       </c>
       <c r="AB3" t="n">
-        <v>493.4886448457788</v>
+        <v>585.223860275049</v>
       </c>
       <c r="AC3" t="n">
-        <v>446.39078119736</v>
+        <v>529.3709164172441</v>
       </c>
       <c r="AD3" t="n">
-        <v>360672.9521108952</v>
+        <v>427718.8939111241</v>
       </c>
       <c r="AE3" t="n">
-        <v>493488.6448457788</v>
+        <v>585223.860275049</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.66956397445946e-06</v>
+        <v>3.443641520691765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.30478395061728</v>
       </c>
       <c r="AH3" t="n">
-        <v>446390.78119736</v>
+        <v>529370.9164172441</v>
       </c>
     </row>
   </sheetData>
@@ -41731,28 +41731,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1220.65069967824</v>
+        <v>1329.57793400428</v>
       </c>
       <c r="AB2" t="n">
-        <v>1670.148138608003</v>
+        <v>1819.187186143313</v>
       </c>
       <c r="AC2" t="n">
-        <v>1510.751544326889</v>
+        <v>1645.566514343046</v>
       </c>
       <c r="AD2" t="n">
-        <v>1220650.69967824</v>
+        <v>1329577.93400428</v>
       </c>
       <c r="AE2" t="n">
-        <v>1670148.138608003</v>
+        <v>1819187.186143313</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.534815087377656e-07</v>
+        <v>1.675229398127537e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.41126543209877</v>
       </c>
       <c r="AH2" t="n">
-        <v>1510751.544326889</v>
+        <v>1645566.514343046</v>
       </c>
     </row>
     <row r="3">
@@ -41837,28 +41837,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>840.9112519919433</v>
+        <v>930.1032857236298</v>
       </c>
       <c r="AB3" t="n">
-        <v>1150.571873361543</v>
+        <v>1272.608348788055</v>
       </c>
       <c r="AC3" t="n">
-        <v>1040.762908605683</v>
+        <v>1151.152394096757</v>
       </c>
       <c r="AD3" t="n">
-        <v>840911.2519919433</v>
+        <v>930103.2857236299</v>
       </c>
       <c r="AE3" t="n">
-        <v>1150571.873361543</v>
+        <v>1272608.348788055</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.214050672573381e-06</v>
+        <v>2.133039140112777e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.60416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1040762.908605683</v>
+        <v>1151152.394096757</v>
       </c>
     </row>
     <row r="4">
@@ -41943,28 +41943,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>746.97142373075</v>
+        <v>826.1679801462285</v>
       </c>
       <c r="AB4" t="n">
-        <v>1022.039256001847</v>
+        <v>1130.399478394987</v>
       </c>
       <c r="AC4" t="n">
-        <v>924.4972638501355</v>
+        <v>1022.515738702601</v>
       </c>
       <c r="AD4" t="n">
-        <v>746971.42373075</v>
+        <v>826167.9801462285</v>
       </c>
       <c r="AE4" t="n">
-        <v>1022039.256001847</v>
+        <v>1130399.478394987</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.311985681429964e-06</v>
+        <v>2.305107087355529e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.28858024691358</v>
       </c>
       <c r="AH4" t="n">
-        <v>924497.2638501355</v>
+        <v>1022515.738702601</v>
       </c>
     </row>
     <row r="5">
@@ -42049,28 +42049,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>697.0624004392231</v>
+        <v>776.3442082007223</v>
       </c>
       <c r="AB5" t="n">
-        <v>953.7515285036701</v>
+        <v>1062.228395549459</v>
       </c>
       <c r="AC5" t="n">
-        <v>862.7268212219567</v>
+        <v>960.8508083251343</v>
       </c>
       <c r="AD5" t="n">
-        <v>697062.400439223</v>
+        <v>776344.2082007222</v>
       </c>
       <c r="AE5" t="n">
-        <v>953751.5285036701</v>
+        <v>1062228.395549459</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.362338013472178e-06</v>
+        <v>2.393574148466196e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.68672839506173</v>
       </c>
       <c r="AH5" t="n">
-        <v>862726.8212219568</v>
+        <v>960850.8083251342</v>
       </c>
     </row>
     <row r="6">
@@ -42155,28 +42155,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>669.8877740534904</v>
+        <v>748.9989896143973</v>
       </c>
       <c r="AB6" t="n">
-        <v>916.5700058228057</v>
+        <v>1024.813461093747</v>
       </c>
       <c r="AC6" t="n">
-        <v>829.093850881159</v>
+        <v>927.0067027016856</v>
       </c>
       <c r="AD6" t="n">
-        <v>669887.7740534904</v>
+        <v>748998.9896143973</v>
       </c>
       <c r="AE6" t="n">
-        <v>916570.0058228057</v>
+        <v>1024813.461093747</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.395684662415427e-06</v>
+        <v>2.452162895208355e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.3125</v>
       </c>
       <c r="AH6" t="n">
-        <v>829093.8508811591</v>
+        <v>927006.7027016856</v>
       </c>
     </row>
     <row r="7">
@@ -42261,28 +42261,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>653.5166191060138</v>
+        <v>722.8882904058767</v>
       </c>
       <c r="AB7" t="n">
-        <v>894.1702693792856</v>
+        <v>989.087650513899</v>
       </c>
       <c r="AC7" t="n">
-        <v>808.831913845581</v>
+        <v>894.6905133420879</v>
       </c>
       <c r="AD7" t="n">
-        <v>653516.6191060138</v>
+        <v>722888.2904058767</v>
       </c>
       <c r="AE7" t="n">
-        <v>894170.2693792856</v>
+        <v>989087.650513899</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.413133490350847e-06</v>
+        <v>2.482819797573439e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.12345679012346</v>
       </c>
       <c r="AH7" t="n">
-        <v>808831.913845581</v>
+        <v>894690.5133420879</v>
       </c>
     </row>
     <row r="8">
@@ -42367,28 +42367,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>628.0380852871109</v>
+        <v>707.2345521940383</v>
       </c>
       <c r="AB8" t="n">
-        <v>859.3094153746805</v>
+        <v>967.6695152982716</v>
       </c>
       <c r="AC8" t="n">
-        <v>777.2981308196596</v>
+        <v>875.3164948908984</v>
       </c>
       <c r="AD8" t="n">
-        <v>628038.0852871109</v>
+        <v>707234.5521940383</v>
       </c>
       <c r="AE8" t="n">
-        <v>859309.4153746805</v>
+        <v>967669.5152982716</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.428366594103992e-06</v>
+        <v>2.509583759955654e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.96141975308642</v>
       </c>
       <c r="AH8" t="n">
-        <v>777298.1308196596</v>
+        <v>875316.4948908985</v>
       </c>
     </row>
     <row r="9">
@@ -42473,28 +42473,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>612.6983340235422</v>
+        <v>691.8948009304697</v>
       </c>
       <c r="AB9" t="n">
-        <v>838.3208909538024</v>
+        <v>946.6809908773934</v>
       </c>
       <c r="AC9" t="n">
-        <v>758.3127217119312</v>
+        <v>856.3310857831698</v>
       </c>
       <c r="AD9" t="n">
-        <v>612698.3340235422</v>
+        <v>691894.8009304698</v>
       </c>
       <c r="AE9" t="n">
-        <v>838320.8909538024</v>
+        <v>946680.9908773934</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.44177172540676e-06</v>
+        <v>2.533136046852003e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.82253086419753</v>
       </c>
       <c r="AH9" t="n">
-        <v>758312.7217119312</v>
+        <v>856331.0857831698</v>
       </c>
     </row>
     <row r="10">
@@ -42579,28 +42579,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>600.6371554317628</v>
+        <v>679.8336223386904</v>
       </c>
       <c r="AB10" t="n">
-        <v>821.8182543028845</v>
+        <v>930.1783542264751</v>
       </c>
       <c r="AC10" t="n">
-        <v>743.3850735413806</v>
+        <v>841.4034376126194</v>
       </c>
       <c r="AD10" t="n">
-        <v>600637.1554317628</v>
+        <v>679833.6223386903</v>
       </c>
       <c r="AE10" t="n">
-        <v>821818.2543028845</v>
+        <v>930178.3542264751</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.45069001524042e-06</v>
+        <v>2.548805130283046e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.72993827160494</v>
       </c>
       <c r="AH10" t="n">
-        <v>743385.0735413806</v>
+        <v>841403.4376126195</v>
       </c>
     </row>
     <row r="11">
@@ -42685,28 +42685,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>588.4553126777899</v>
+        <v>667.6517795847175</v>
       </c>
       <c r="AB11" t="n">
-        <v>805.150519621926</v>
+        <v>913.5106195455168</v>
       </c>
       <c r="AC11" t="n">
-        <v>728.3080840650601</v>
+        <v>826.3264481362989</v>
       </c>
       <c r="AD11" t="n">
-        <v>588455.3126777899</v>
+        <v>667651.7795847175</v>
       </c>
       <c r="AE11" t="n">
-        <v>805150.519621926</v>
+        <v>913510.6195455168</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.456118539486995e-06</v>
+        <v>2.558342833241071e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.67592592592593</v>
       </c>
       <c r="AH11" t="n">
-        <v>728308.0840650601</v>
+        <v>826326.4481362989</v>
       </c>
     </row>
     <row r="12">
@@ -42791,28 +42791,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>576.6235819573451</v>
+        <v>655.8200488642726</v>
       </c>
       <c r="AB12" t="n">
-        <v>788.9618236710935</v>
+        <v>897.3219235946841</v>
       </c>
       <c r="AC12" t="n">
-        <v>713.6644145347977</v>
+        <v>811.6827786060364</v>
       </c>
       <c r="AD12" t="n">
-        <v>576623.5819573451</v>
+        <v>655820.0488642727</v>
       </c>
       <c r="AE12" t="n">
-        <v>788961.8236710934</v>
+        <v>897321.9235946841</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.463596608602175e-06</v>
+        <v>2.57148150568325e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.60262345679012</v>
       </c>
       <c r="AH12" t="n">
-        <v>713664.4145347978</v>
+        <v>811682.7786060364</v>
       </c>
     </row>
     <row r="13">
@@ -42897,28 +42897,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>570.6103212650419</v>
+        <v>649.8067881719693</v>
       </c>
       <c r="AB13" t="n">
-        <v>780.7342151055451</v>
+        <v>889.0943150291359</v>
       </c>
       <c r="AC13" t="n">
-        <v>706.2220373832241</v>
+        <v>804.2404014544629</v>
       </c>
       <c r="AD13" t="n">
-        <v>570610.3212650418</v>
+        <v>649806.7881719692</v>
       </c>
       <c r="AE13" t="n">
-        <v>780734.2151055451</v>
+        <v>889094.3150291359</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.467141767293816e-06</v>
+        <v>2.577710209655839e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.5679012345679</v>
       </c>
       <c r="AH13" t="n">
-        <v>706222.0373832241</v>
+        <v>804240.4014544629</v>
       </c>
     </row>
     <row r="14">
@@ -43003,28 +43003,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>572.902495686717</v>
+        <v>652.0989625936444</v>
       </c>
       <c r="AB14" t="n">
-        <v>783.8704692728796</v>
+        <v>892.2305691964706</v>
       </c>
       <c r="AC14" t="n">
-        <v>709.0589718545887</v>
+        <v>807.0773359258275</v>
       </c>
       <c r="AD14" t="n">
-        <v>572902.495686717</v>
+        <v>652098.9625936444</v>
       </c>
       <c r="AE14" t="n">
-        <v>783870.4692728797</v>
+        <v>892230.5691964705</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.466643229352804e-06</v>
+        <v>2.576834298159693e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.57175925925926</v>
       </c>
       <c r="AH14" t="n">
-        <v>709058.9718545887</v>
+        <v>807077.3359258275</v>
       </c>
     </row>
   </sheetData>
@@ -43300,28 +43300,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1633.649265273417</v>
+        <v>1767.002053314819</v>
       </c>
       <c r="AB2" t="n">
-        <v>2235.230996266121</v>
+        <v>2417.690163974166</v>
       </c>
       <c r="AC2" t="n">
-        <v>2021.903687148888</v>
+        <v>2186.949207973928</v>
       </c>
       <c r="AD2" t="n">
-        <v>1633649.265273417</v>
+        <v>1767002.053314819</v>
       </c>
       <c r="AE2" t="n">
-        <v>2235230.996266121</v>
+        <v>2417690.163974166</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.056425797080259e-07</v>
+        <v>1.377559028561707e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.56327160493827</v>
       </c>
       <c r="AH2" t="n">
-        <v>2021903.687148888</v>
+        <v>2186949.207973928</v>
       </c>
     </row>
     <row r="3">
@@ -43406,28 +43406,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1023.328082715426</v>
+        <v>1125.82180958501</v>
       </c>
       <c r="AB3" t="n">
-        <v>1400.162628820007</v>
+        <v>1540.399067627075</v>
       </c>
       <c r="AC3" t="n">
-        <v>1266.533072666017</v>
+        <v>1393.385542576416</v>
       </c>
       <c r="AD3" t="n">
-        <v>1023328.082715426</v>
+        <v>1125821.80958501</v>
       </c>
       <c r="AE3" t="n">
-        <v>1400162.628820007</v>
+        <v>1540399.067627075</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.095808422369712e-06</v>
+        <v>1.873710282736586e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.79243827160494</v>
       </c>
       <c r="AH3" t="n">
-        <v>1266533.072666017</v>
+        <v>1393385.542576416</v>
       </c>
     </row>
     <row r="4">
@@ -43512,28 +43512,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>893.0405157933433</v>
+        <v>975.1038594812187</v>
       </c>
       <c r="AB4" t="n">
-        <v>1221.897431875426</v>
+        <v>1334.180119088388</v>
       </c>
       <c r="AC4" t="n">
-        <v>1105.281255921052</v>
+        <v>1206.847841056149</v>
       </c>
       <c r="AD4" t="n">
-        <v>893040.5157933433</v>
+        <v>975103.8594812187</v>
       </c>
       <c r="AE4" t="n">
-        <v>1221897.431875427</v>
+        <v>1334180.119088388</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.20662230930232e-06</v>
+        <v>2.063189680026329e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.0679012345679</v>
       </c>
       <c r="AH4" t="n">
-        <v>1105281.255921052</v>
+        <v>1206847.841056149</v>
       </c>
     </row>
     <row r="5">
@@ -43618,28 +43618,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>827.6829451775851</v>
+        <v>909.660948010889</v>
       </c>
       <c r="AB5" t="n">
-        <v>1132.472320386429</v>
+        <v>1244.638240477193</v>
       </c>
       <c r="AC5" t="n">
-        <v>1024.390751563632</v>
+        <v>1125.85171366679</v>
       </c>
       <c r="AD5" t="n">
-        <v>827682.9451775851</v>
+        <v>909660.948010889</v>
       </c>
       <c r="AE5" t="n">
-        <v>1132472.320386429</v>
+        <v>1244638.240477192</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.265925887521072e-06</v>
+        <v>2.164592189847575e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.26929012345679</v>
       </c>
       <c r="AH5" t="n">
-        <v>1024390.751563632</v>
+        <v>1125851.71366679</v>
       </c>
     </row>
     <row r="6">
@@ -43724,28 +43724,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>784.9049032069727</v>
+        <v>866.9681573862969</v>
       </c>
       <c r="AB6" t="n">
-        <v>1073.94151612822</v>
+        <v>1186.224080871632</v>
       </c>
       <c r="AC6" t="n">
-        <v>971.446045115326</v>
+        <v>1073.012519469197</v>
       </c>
       <c r="AD6" t="n">
-        <v>784904.9032069726</v>
+        <v>866968.1573862969</v>
       </c>
       <c r="AE6" t="n">
-        <v>1073941.516128219</v>
+        <v>1186224.080871632</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.30184965722514e-06</v>
+        <v>2.226017832610579e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.8179012345679</v>
       </c>
       <c r="AH6" t="n">
-        <v>971446.0451153259</v>
+        <v>1073012.519469197</v>
       </c>
     </row>
     <row r="7">
@@ -43830,28 +43830,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>758.5384889105852</v>
+        <v>840.4311508893177</v>
       </c>
       <c r="AB7" t="n">
-        <v>1037.865824883798</v>
+        <v>1149.914977852364</v>
       </c>
       <c r="AC7" t="n">
-        <v>938.8133672107219</v>
+        <v>1040.168706281942</v>
       </c>
       <c r="AD7" t="n">
-        <v>758538.4889105852</v>
+        <v>840431.1508893176</v>
       </c>
       <c r="AE7" t="n">
-        <v>1037865.824883798</v>
+        <v>1149914.977852365</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.331314621380631e-06</v>
+        <v>2.27639963767028e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.46682098765432</v>
       </c>
       <c r="AH7" t="n">
-        <v>938813.3672107219</v>
+        <v>1040168.706281942</v>
       </c>
     </row>
     <row r="8">
@@ -43936,28 +43936,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>747.4314658438386</v>
+        <v>829.324127822571</v>
       </c>
       <c r="AB8" t="n">
-        <v>1022.668705916601</v>
+        <v>1134.717858885167</v>
       </c>
       <c r="AC8" t="n">
-        <v>925.0666399484633</v>
+        <v>1026.421979019683</v>
       </c>
       <c r="AD8" t="n">
-        <v>747431.4658438386</v>
+        <v>829324.127822571</v>
       </c>
       <c r="AE8" t="n">
-        <v>1022668.705916601</v>
+        <v>1134717.858885167</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.342417361497193e-06</v>
+        <v>2.295384085953645e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.3395061728395</v>
       </c>
       <c r="AH8" t="n">
-        <v>925066.6399484633</v>
+        <v>1026421.979019683</v>
       </c>
     </row>
     <row r="9">
@@ -44042,28 +44042,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>731.0573866070383</v>
+        <v>802.8628235224985</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000.264968331418</v>
+        <v>1098.512334951452</v>
       </c>
       <c r="AC9" t="n">
-        <v>904.8010836345667</v>
+        <v>993.6718594754301</v>
       </c>
       <c r="AD9" t="n">
-        <v>731057.3866070383</v>
+        <v>802862.8235224985</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000264.968331418</v>
+        <v>1098512.334951452</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.359071471672036e-06</v>
+        <v>2.323860758378693e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.15432098765432</v>
       </c>
       <c r="AH9" t="n">
-        <v>904801.0836345666</v>
+        <v>993671.8594754301</v>
       </c>
     </row>
     <row r="10">
@@ -44148,28 +44148,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>719.9661571224062</v>
+        <v>791.7715940378661</v>
       </c>
       <c r="AB10" t="n">
-        <v>985.0894588400325</v>
+        <v>1083.336825460067</v>
       </c>
       <c r="AC10" t="n">
-        <v>891.0739034700781</v>
+        <v>979.9446793109418</v>
       </c>
       <c r="AD10" t="n">
-        <v>719966.1571224062</v>
+        <v>791771.5940378661</v>
       </c>
       <c r="AE10" t="n">
-        <v>985089.4588400326</v>
+        <v>1083336.825460067</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.36803906945849e-06</v>
+        <v>2.33919435122295e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.05401234567901</v>
       </c>
       <c r="AH10" t="n">
-        <v>891073.9034700781</v>
+        <v>979944.6793109417</v>
       </c>
     </row>
     <row r="11">
@@ -44254,28 +44254,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>697.6286856589181</v>
+        <v>779.606598983671</v>
       </c>
       <c r="AB11" t="n">
-        <v>954.5263449239975</v>
+        <v>1066.692142545213</v>
       </c>
       <c r="AC11" t="n">
-        <v>863.4276902505899</v>
+        <v>964.8885415725219</v>
       </c>
       <c r="AD11" t="n">
-        <v>697628.6856589181</v>
+        <v>779606.5989836711</v>
       </c>
       <c r="AE11" t="n">
-        <v>954526.3449239975</v>
+        <v>1066692.142545213</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.376899910128439e-06</v>
+        <v>2.354345401295251e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.95756172839506</v>
       </c>
       <c r="AH11" t="n">
-        <v>863427.6902505899</v>
+        <v>964888.5415725219</v>
       </c>
     </row>
     <row r="12">
@@ -44360,28 +44360,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>688.4089368846564</v>
+        <v>770.3868502094093</v>
       </c>
       <c r="AB12" t="n">
-        <v>941.9114779044436</v>
+        <v>1054.077275525659</v>
       </c>
       <c r="AC12" t="n">
-        <v>852.0167684343049</v>
+        <v>953.4776197562369</v>
       </c>
       <c r="AD12" t="n">
-        <v>688408.9368846564</v>
+        <v>770386.8502094094</v>
       </c>
       <c r="AE12" t="n">
-        <v>941911.4779044436</v>
+        <v>1054077.275525659</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.384533043958575e-06</v>
+        <v>2.367397209490065e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.87268518518518</v>
       </c>
       <c r="AH12" t="n">
-        <v>852016.768434305</v>
+        <v>953477.6197562369</v>
       </c>
     </row>
     <row r="13">
@@ -44466,28 +44466,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>681.7966080434815</v>
+        <v>763.7745213682344</v>
       </c>
       <c r="AB13" t="n">
-        <v>932.8641978685879</v>
+        <v>1045.029995489803</v>
       </c>
       <c r="AC13" t="n">
-        <v>843.8329481071339</v>
+        <v>945.293799429066</v>
       </c>
       <c r="AD13" t="n">
-        <v>681796.6080434815</v>
+        <v>763774.5213682344</v>
       </c>
       <c r="AE13" t="n">
-        <v>932864.1978685879</v>
+        <v>1045029.995489803</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.389817521225592e-06</v>
+        <v>2.376433076701859e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.81867283950617</v>
       </c>
       <c r="AH13" t="n">
-        <v>843832.948107134</v>
+        <v>945293.799429066</v>
       </c>
     </row>
     <row r="14">
@@ -44572,28 +44572,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>670.8257275672695</v>
+        <v>752.8036408920221</v>
       </c>
       <c r="AB14" t="n">
-        <v>917.8533551999469</v>
+        <v>1030.019152821162</v>
       </c>
       <c r="AC14" t="n">
-        <v>830.2547191949379</v>
+        <v>931.7155705168699</v>
       </c>
       <c r="AD14" t="n">
-        <v>670825.7275672695</v>
+        <v>752803.6408920222</v>
       </c>
       <c r="AE14" t="n">
-        <v>917853.3551999469</v>
+        <v>1030019.152821162</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.395208755609115e-06</v>
+        <v>2.385651486685609e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.7608024691358</v>
       </c>
       <c r="AH14" t="n">
-        <v>830254.719194938</v>
+        <v>931715.5705168699</v>
       </c>
     </row>
     <row r="15">
@@ -44678,28 +44678,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>662.7913673374775</v>
+        <v>744.7692806622304</v>
       </c>
       <c r="AB15" t="n">
-        <v>906.8603890825881</v>
+        <v>1019.026186703803</v>
       </c>
       <c r="AC15" t="n">
-        <v>820.3109063350952</v>
+        <v>921.7717576570274</v>
       </c>
       <c r="AD15" t="n">
-        <v>662791.3673374775</v>
+        <v>744769.2806622303</v>
       </c>
       <c r="AE15" t="n">
-        <v>906860.3890825881</v>
+        <v>1019026.186703803</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.400119582968364e-06</v>
+        <v>2.394048454195559e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.70679012345679</v>
       </c>
       <c r="AH15" t="n">
-        <v>820310.9063350952</v>
+        <v>921771.7576570273</v>
       </c>
     </row>
     <row r="16">
@@ -44784,28 +44784,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>652.7356570162917</v>
+        <v>734.7135703410446</v>
       </c>
       <c r="AB16" t="n">
-        <v>893.101722594512</v>
+        <v>1005.267520215727</v>
       </c>
       <c r="AC16" t="n">
-        <v>807.8653476662314</v>
+        <v>909.3261989881634</v>
       </c>
       <c r="AD16" t="n">
-        <v>652735.6570162917</v>
+        <v>734713.5703410446</v>
       </c>
       <c r="AE16" t="n">
-        <v>893101.722594512</v>
+        <v>1005267.520215727</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.405350681677129e-06</v>
+        <v>2.402993050021375e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.65277777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>807865.3476662314</v>
+        <v>909326.1989881634</v>
       </c>
     </row>
     <row r="17">
@@ -44890,28 +44890,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>645.034956422641</v>
+        <v>727.012869747394</v>
       </c>
       <c r="AB17" t="n">
-        <v>882.5652843113461</v>
+        <v>994.7310819325611</v>
       </c>
       <c r="AC17" t="n">
-        <v>798.3344922648266</v>
+        <v>899.7953435867587</v>
       </c>
       <c r="AD17" t="n">
-        <v>645034.9564226411</v>
+        <v>727012.869747394</v>
       </c>
       <c r="AE17" t="n">
-        <v>882565.2843113461</v>
+        <v>994731.0819325611</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.407218931215973e-06</v>
+        <v>2.406187548530595e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.63348765432099</v>
       </c>
       <c r="AH17" t="n">
-        <v>798334.4922648267</v>
+        <v>899795.3435867587</v>
       </c>
     </row>
     <row r="18">
@@ -44996,28 +44996,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>637.9298535002403</v>
+        <v>719.907766824993</v>
       </c>
       <c r="AB18" t="n">
-        <v>872.8437690378988</v>
+        <v>985.0095666591139</v>
       </c>
       <c r="AC18" t="n">
-        <v>789.5407847648449</v>
+        <v>891.0016360867771</v>
       </c>
       <c r="AD18" t="n">
-        <v>637929.8535002402</v>
+        <v>719907.7668249931</v>
       </c>
       <c r="AE18" t="n">
-        <v>872843.7690378989</v>
+        <v>985009.566659114</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.409033802196565e-06</v>
+        <v>2.409290775653838e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.6141975308642</v>
       </c>
       <c r="AH18" t="n">
-        <v>789540.7847648449</v>
+        <v>891001.6360867771</v>
       </c>
     </row>
     <row r="19">
@@ -45102,28 +45102,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>636.6590805122145</v>
+        <v>718.6369938369672</v>
       </c>
       <c r="AB19" t="n">
-        <v>871.1050413731344</v>
+        <v>983.2708389943496</v>
       </c>
       <c r="AC19" t="n">
-        <v>787.967998828086</v>
+        <v>889.4288501500182</v>
       </c>
       <c r="AD19" t="n">
-        <v>636659.0805122145</v>
+        <v>718636.9938369673</v>
       </c>
       <c r="AE19" t="n">
-        <v>871105.0413731345</v>
+        <v>983270.8389943496</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.411382458759684e-06</v>
+        <v>2.413306716636858e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.59104938271605</v>
       </c>
       <c r="AH19" t="n">
-        <v>787967.9988280861</v>
+        <v>889428.8501500182</v>
       </c>
     </row>
   </sheetData>
@@ -45399,28 +45399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.2519405495711</v>
+        <v>393.3226150411531</v>
       </c>
       <c r="AB2" t="n">
-        <v>438.1828335784006</v>
+        <v>538.1613540684277</v>
       </c>
       <c r="AC2" t="n">
-        <v>396.3632789351466</v>
+        <v>486.7999897503404</v>
       </c>
       <c r="AD2" t="n">
-        <v>320251.9405495711</v>
+        <v>393322.6150411531</v>
       </c>
       <c r="AE2" t="n">
-        <v>438182.8335784005</v>
+        <v>538161.3540684277</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.654281698460729e-06</v>
+        <v>3.545887626172153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.99537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>396363.2789351466</v>
+        <v>486799.9897503405</v>
       </c>
     </row>
   </sheetData>
@@ -45696,28 +45696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>816.6847934525281</v>
+        <v>910.2966410027299</v>
       </c>
       <c r="AB2" t="n">
-        <v>1117.424163991996</v>
+        <v>1245.508023673425</v>
       </c>
       <c r="AC2" t="n">
-        <v>1010.778770095263</v>
+        <v>1126.638485975523</v>
       </c>
       <c r="AD2" t="n">
-        <v>816684.7934525281</v>
+        <v>910296.6410027299</v>
       </c>
       <c r="AE2" t="n">
-        <v>1117424.163991996</v>
+        <v>1245508.023673425</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.184164832412561e-06</v>
+        <v>2.18174381416291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.15123456790123</v>
       </c>
       <c r="AH2" t="n">
-        <v>1010778.770095263</v>
+        <v>1126638.485975523</v>
       </c>
     </row>
     <row r="3">
@@ -45802,28 +45802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>625.0479247944868</v>
+        <v>699.9886252491015</v>
       </c>
       <c r="AB3" t="n">
-        <v>855.2181458721018</v>
+        <v>957.7553183844732</v>
       </c>
       <c r="AC3" t="n">
-        <v>773.5973263362741</v>
+        <v>866.3484950158902</v>
       </c>
       <c r="AD3" t="n">
-        <v>625047.9247944868</v>
+        <v>699988.6252491014</v>
       </c>
       <c r="AE3" t="n">
-        <v>855218.1458721018</v>
+        <v>957755.3183844732</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.397447362919078e-06</v>
+        <v>2.574702487537434e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.23070987654321</v>
       </c>
       <c r="AH3" t="n">
-        <v>773597.3263362742</v>
+        <v>866348.4950158902</v>
       </c>
     </row>
     <row r="4">
@@ -45908,28 +45908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>565.6572138436227</v>
+        <v>640.5125734436656</v>
       </c>
       <c r="AB4" t="n">
-        <v>773.9571550158821</v>
+        <v>876.3775604060557</v>
       </c>
       <c r="AC4" t="n">
-        <v>700.0917703968551</v>
+        <v>792.7373160445322</v>
       </c>
       <c r="AD4" t="n">
-        <v>565657.2138436227</v>
+        <v>640512.5734436656</v>
       </c>
       <c r="AE4" t="n">
-        <v>773957.1550158821</v>
+        <v>876377.5604060558</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.473989219236466e-06</v>
+        <v>2.715725693913847e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.3858024691358</v>
       </c>
       <c r="AH4" t="n">
-        <v>700091.7703968551</v>
+        <v>792737.3160445322</v>
       </c>
     </row>
     <row r="5">
@@ -46014,28 +46014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>526.6144993476441</v>
+        <v>601.5551102937077</v>
       </c>
       <c r="AB5" t="n">
-        <v>720.5371905994846</v>
+        <v>823.0742406423077</v>
       </c>
       <c r="AC5" t="n">
-        <v>651.7701324089676</v>
+        <v>744.5211903073571</v>
       </c>
       <c r="AD5" t="n">
-        <v>526614.4993476442</v>
+        <v>601555.1102937077</v>
       </c>
       <c r="AE5" t="n">
-        <v>720537.1905994846</v>
+        <v>823074.2406423077</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.514023784637497e-06</v>
+        <v>2.789486679737456e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.98070987654321</v>
       </c>
       <c r="AH5" t="n">
-        <v>651770.1324089676</v>
+        <v>744521.1903073571</v>
       </c>
     </row>
     <row r="6">
@@ -46120,28 +46120,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>505.6684786315173</v>
+        <v>580.6090895775809</v>
       </c>
       <c r="AB6" t="n">
-        <v>691.8779209824637</v>
+        <v>794.4149710252867</v>
       </c>
       <c r="AC6" t="n">
-        <v>625.8460632606577</v>
+        <v>718.5971211590472</v>
       </c>
       <c r="AD6" t="n">
-        <v>505668.4786315173</v>
+        <v>580609.0895775809</v>
       </c>
       <c r="AE6" t="n">
-        <v>691877.9209824638</v>
+        <v>794414.9710252867</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.536245613890932e-06</v>
+        <v>2.830428900943512e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.76466049382716</v>
       </c>
       <c r="AH6" t="n">
-        <v>625846.0632606577</v>
+        <v>718597.1211590472</v>
       </c>
     </row>
     <row r="7">
@@ -46226,28 +46226,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>488.6801391668735</v>
+        <v>563.6207501129371</v>
       </c>
       <c r="AB7" t="n">
-        <v>668.633725454296</v>
+        <v>771.1707754971189</v>
       </c>
       <c r="AC7" t="n">
-        <v>604.820261130265</v>
+        <v>697.5713190286543</v>
       </c>
       <c r="AD7" t="n">
-        <v>488680.1391668735</v>
+        <v>563620.7501129371</v>
       </c>
       <c r="AE7" t="n">
-        <v>668633.725454296</v>
+        <v>771170.7754971189</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.549355317392297e-06</v>
+        <v>2.854582645199994e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.63734567901235</v>
       </c>
       <c r="AH7" t="n">
-        <v>604820.261130265</v>
+        <v>697571.3190286544</v>
       </c>
     </row>
     <row r="8">
@@ -46332,28 +46332,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>488.8030407151712</v>
+        <v>563.7436516612347</v>
       </c>
       <c r="AB8" t="n">
-        <v>668.8018847747106</v>
+        <v>771.3389348175338</v>
       </c>
       <c r="AC8" t="n">
-        <v>604.9723715611523</v>
+        <v>697.7234294595416</v>
       </c>
       <c r="AD8" t="n">
-        <v>488803.0407151712</v>
+        <v>563743.6516612347</v>
       </c>
       <c r="AE8" t="n">
-        <v>668801.8847747106</v>
+        <v>771338.9348175337</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.550589863461933e-06</v>
+        <v>2.856857213044775e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.62577160493827</v>
       </c>
       <c r="AH8" t="n">
-        <v>604972.3715611523</v>
+        <v>697723.4294595417</v>
       </c>
     </row>
   </sheetData>
@@ -46629,28 +46629,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1050.779908510171</v>
+        <v>1147.917640427746</v>
       </c>
       <c r="AB2" t="n">
-        <v>1437.723427961457</v>
+        <v>1570.631558185366</v>
       </c>
       <c r="AC2" t="n">
-        <v>1300.50912185432</v>
+        <v>1420.732686667391</v>
       </c>
       <c r="AD2" t="n">
-        <v>1050779.908510171</v>
+        <v>1147917.640427746</v>
       </c>
       <c r="AE2" t="n">
-        <v>1437723.427961458</v>
+        <v>1570631.558185366</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.037820435142854e-06</v>
+        <v>1.853990469031807e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1300509.12185432</v>
+        <v>1420732.686667391</v>
       </c>
     </row>
     <row r="3">
@@ -46735,28 +46735,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>756.6602838336928</v>
+        <v>834.3704872694627</v>
       </c>
       <c r="AB3" t="n">
-        <v>1035.295981837034</v>
+        <v>1141.622510510071</v>
       </c>
       <c r="AC3" t="n">
-        <v>936.4887863775433</v>
+        <v>1032.667660384246</v>
       </c>
       <c r="AD3" t="n">
-        <v>756660.2838336928</v>
+        <v>834370.4872694628</v>
       </c>
       <c r="AE3" t="n">
-        <v>1035295.981837034</v>
+        <v>1141622.510510071</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.283238705582394e-06</v>
+        <v>2.292412298968648e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.01774691358025</v>
       </c>
       <c r="AH3" t="n">
-        <v>936488.7863775434</v>
+        <v>1032667.660384246</v>
       </c>
     </row>
     <row r="4">
@@ -46841,28 +46841,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>669.661048763695</v>
+        <v>756.9142452226731</v>
       </c>
       <c r="AB4" t="n">
-        <v>916.2597902788941</v>
+        <v>1035.643463013423</v>
       </c>
       <c r="AC4" t="n">
-        <v>828.8132418733682</v>
+        <v>936.8031044381505</v>
       </c>
       <c r="AD4" t="n">
-        <v>669661.0487636951</v>
+        <v>756914.2452226732</v>
       </c>
       <c r="AE4" t="n">
-        <v>916259.7902788941</v>
+        <v>1035643.463013423</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.371874547719922e-06</v>
+        <v>2.450753762455985e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.91820987654321</v>
       </c>
       <c r="AH4" t="n">
-        <v>828813.2418733682</v>
+        <v>936803.1044381505</v>
       </c>
     </row>
     <row r="5">
@@ -46947,28 +46947,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>635.3667410199461</v>
+        <v>712.906262746573</v>
       </c>
       <c r="AB5" t="n">
-        <v>869.3368054658187</v>
+        <v>975.4297998944597</v>
       </c>
       <c r="AC5" t="n">
-        <v>786.3685208740297</v>
+        <v>882.3361488168541</v>
       </c>
       <c r="AD5" t="n">
-        <v>635366.7410199461</v>
+        <v>712906.2627465731</v>
       </c>
       <c r="AE5" t="n">
-        <v>869336.8054658186</v>
+        <v>975429.7998944598</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.417154671417254e-06</v>
+        <v>2.531643398975697e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.40895061728395</v>
       </c>
       <c r="AH5" t="n">
-        <v>786368.5208740297</v>
+        <v>882336.1488168541</v>
       </c>
     </row>
     <row r="6">
@@ -47053,28 +47053,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>616.508690940649</v>
+        <v>684.5051301355167</v>
       </c>
       <c r="AB6" t="n">
-        <v>843.5343893888713</v>
+        <v>936.5701172864716</v>
       </c>
       <c r="AC6" t="n">
-        <v>763.0286511735477</v>
+        <v>847.1851797770655</v>
       </c>
       <c r="AD6" t="n">
-        <v>616508.690940649</v>
+        <v>684505.1301355166</v>
       </c>
       <c r="AE6" t="n">
-        <v>843534.3893888713</v>
+        <v>936570.1172864717</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.439455132338191e-06</v>
+        <v>2.571481544961655e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.16975308641975</v>
       </c>
       <c r="AH6" t="n">
-        <v>763028.6511735477</v>
+        <v>847185.1797770655</v>
       </c>
     </row>
     <row r="7">
@@ -47159,28 +47159,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>585.2651076868144</v>
+        <v>662.8898807594618</v>
       </c>
       <c r="AB7" t="n">
-        <v>800.785540411362</v>
+        <v>906.9951794926524</v>
       </c>
       <c r="AC7" t="n">
-        <v>724.3596923440657</v>
+        <v>820.4328325376025</v>
       </c>
       <c r="AD7" t="n">
-        <v>585265.1076868144</v>
+        <v>662889.8807594618</v>
       </c>
       <c r="AE7" t="n">
-        <v>800785.5404113621</v>
+        <v>906995.1794926524</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.46356679820702e-06</v>
+        <v>2.614555276408402e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.91898148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>724359.6923440658</v>
+        <v>820432.8325376025</v>
       </c>
     </row>
     <row r="8">
@@ -47265,28 +47265,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>568.3010272433414</v>
+        <v>645.9258003159888</v>
       </c>
       <c r="AB8" t="n">
-        <v>777.5745371461927</v>
+        <v>883.7841762274832</v>
       </c>
       <c r="AC8" t="n">
-        <v>703.3639146536765</v>
+        <v>799.4370548472132</v>
       </c>
       <c r="AD8" t="n">
-        <v>568301.0272433414</v>
+        <v>645925.8003159888</v>
       </c>
       <c r="AE8" t="n">
-        <v>777574.5371461927</v>
+        <v>883784.1762274832</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.478735639645626e-06</v>
+        <v>2.641653304642505e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.76851851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>703363.9146536764</v>
+        <v>799437.0548472132</v>
       </c>
     </row>
     <row r="9">
@@ -47371,28 +47371,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>554.14259678665</v>
+        <v>631.7673698592976</v>
       </c>
       <c r="AB9" t="n">
-        <v>758.2023479694798</v>
+        <v>864.4119870507702</v>
       </c>
       <c r="AC9" t="n">
-        <v>685.8405800229508</v>
+        <v>781.9137202164875</v>
       </c>
       <c r="AD9" t="n">
-        <v>554142.59678665</v>
+        <v>631767.3698592975</v>
       </c>
       <c r="AE9" t="n">
-        <v>758202.3479694797</v>
+        <v>864411.9870507702</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.489716069642229e-06</v>
+        <v>2.661269041498536e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.65663580246914</v>
       </c>
       <c r="AH9" t="n">
-        <v>685840.5800229508</v>
+        <v>781913.7202164875</v>
       </c>
     </row>
     <row r="10">
@@ -47477,28 +47477,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>539.9334642635797</v>
+        <v>617.5582373362271</v>
       </c>
       <c r="AB10" t="n">
-        <v>738.7607859887297</v>
+        <v>844.9704250700202</v>
       </c>
       <c r="AC10" t="n">
-        <v>668.2544934312398</v>
+        <v>764.3276336247766</v>
       </c>
       <c r="AD10" t="n">
-        <v>539933.4642635797</v>
+        <v>617558.2373362271</v>
       </c>
       <c r="AE10" t="n">
-        <v>738760.7859887297</v>
+        <v>844970.4250700201</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.497640091289262e-06</v>
+        <v>2.675424727889486e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.57947530864197</v>
       </c>
       <c r="AH10" t="n">
-        <v>668254.4934312397</v>
+        <v>764327.6336247766</v>
       </c>
     </row>
     <row r="11">
@@ -47583,28 +47583,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>538.5988627220707</v>
+        <v>616.2236357947181</v>
       </c>
       <c r="AB11" t="n">
-        <v>736.9347252811726</v>
+        <v>843.144364362463</v>
       </c>
       <c r="AC11" t="n">
-        <v>666.6027093947197</v>
+        <v>762.6758495882566</v>
       </c>
       <c r="AD11" t="n">
-        <v>538598.8627220708</v>
+        <v>616223.6357947182</v>
       </c>
       <c r="AE11" t="n">
-        <v>736934.7252811727</v>
+        <v>843144.364362463</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.499111695309426e-06</v>
+        <v>2.678053641076377e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.5679012345679</v>
       </c>
       <c r="AH11" t="n">
-        <v>666602.7093947197</v>
+        <v>762675.8495882566</v>
       </c>
     </row>
   </sheetData>
